--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_18_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>780143.0126897438</v>
+        <v>775089.3379751222</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24104047.79063755</v>
+        <v>24104047.79063754</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8461764.091366259</v>
+        <v>8461764.091366267</v>
       </c>
     </row>
     <row r="9">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.4936277569416</v>
+        <v>242.5281774068097</v>
       </c>
       <c r="H11" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T11" t="n">
         <v>210.5842916762861</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>22.15969119509677</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
@@ -1463,10 +1463,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>86.94051282090996</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>153.1173860389223</v>
@@ -1514,7 +1514,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>119.1494492659355</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>139.0751649166464</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.10931561104034</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U13" t="n">
-        <v>275.7446445238013</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>106.8995930848233</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.701627844419832</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.99499061398264</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T14" t="n">
-        <v>210.5842916762861</v>
+        <v>133.7590135540919</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.58006396938444</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -1703,7 +1703,7 @@
         <v>104.7712654402038</v>
       </c>
       <c r="H15" t="n">
-        <v>58.94334016289027</v>
+        <v>41.11258754359601</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>153.1173860389223</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>12.00105976802084</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H16" t="n">
         <v>139.5473206610679</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.10931561104034</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S16" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T16" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>268.4916315695871</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.7970969939634</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>200.6093374817748</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T17" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>104.7712654402038</v>
       </c>
       <c r="H18" t="n">
-        <v>50.91629836426991</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.56893955755872</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>153.1173860389223</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3017141927292</v>
+        <v>61.74277537063352</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
@@ -2004,13 +2004,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>34.23813683540262</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.10931561104035</v>
+        <v>41.10931561104034</v>
       </c>
       <c r="S19" t="n">
-        <v>167.7412420701845</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>233.0375990857039</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.04738452429114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>134.1449791107273</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.99499061398264</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>239.5301279912547</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>86.58574511178645</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -2171,13 +2171,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
         <v>104.7712654402038</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>35.11717597596495</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>153.1173860389223</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3017141927292</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2241,16 +2241,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.10931561104034</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T22" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>132.9150465240993</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.04738452429114</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>402.4936277569416</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.99499061398264</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>175.3367797365968</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>133.8923693785154</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>85.56893955755871</v>
+        <v>30.15566678099836</v>
       </c>
       <c r="T24" t="n">
         <v>153.1173860389223</v>
@@ -2462,7 +2462,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>122.2484648450522</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -2478,22 +2478,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>164.6146493334786</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>58.21097052567279</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.10931561104034</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>167.7412420701844</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>170.0057378116098</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H26" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.99499061398264</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3180969423526</v>
+        <v>118.1323157114439</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.41807685613087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>1.371573263350775</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>85.56893955755871</v>
+        <v>30.15566678099836</v>
       </c>
       <c r="T27" t="n">
         <v>153.1173860389223</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>41.10931561104034</v>
       </c>
       <c r="S28" t="n">
-        <v>167.7412420701844</v>
+        <v>80.74440830134645</v>
       </c>
       <c r="T28" t="n">
         <v>233.0375990857039</v>
@@ -2772,16 +2772,16 @@
         <v>279.9176257340516</v>
       </c>
       <c r="V28" t="n">
-        <v>143.8266475973386</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.701627844419832</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.99499061398264</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>209.8089608773217</v>
+        <v>151.8984154700123</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2882,13 +2882,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>63.30512468216156</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>85.56893955755871</v>
+        <v>30.15566678099814</v>
       </c>
       <c r="T30" t="n">
         <v>153.1173860389223</v>
@@ -2936,7 +2936,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -2955,19 +2955,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.10931561104034</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.0375990857039</v>
+        <v>183.0751346912653</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>32.73659465298635</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>210.5842916762861</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>74.09014774263984</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>361.4201354386655</v>
       </c>
     </row>
     <row r="33">
@@ -3116,16 +3116,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>8.030290487260809</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>85.56893955755871</v>
+        <v>30.15566678099814</v>
       </c>
       <c r="T33" t="n">
         <v>153.1173860389223</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.95973703428493</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>41.10931561104034</v>
       </c>
       <c r="S34" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9176257340516</v>
+        <v>112.7390160379568</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.106878166685919</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>366.4054518809545</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H35" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>84.99499061398264</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U35" t="n">
         <v>254.3180969423526</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3353,16 +3353,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>8.03029048726123</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>58.94334016289027</v>
+        <v>30.15566678099788</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>153.1173860389223</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.10931561104034</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>219.526008125145</v>
       </c>
       <c r="Y37" t="n">
-        <v>212.4115921163705</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>89.17620592974053</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>74.38049021129427</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,13 +3593,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>46.55034267947421</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>85.56893955755871</v>
+        <v>30.15566678099814</v>
       </c>
       <c r="T39" t="n">
         <v>153.1173860389223</v>
@@ -3650,7 +3650,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="40">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>109.364201700214</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>139.5473206610679</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.10931561104034</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U40" t="n">
         <v>279.9176257340516</v>
       </c>
       <c r="V40" t="n">
-        <v>133.8389829446666</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>97.8751323785355</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.701627844419832</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T41" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3180969423526</v>
+        <v>29.60760807453995</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,22 +3821,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>32.81513000648413</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>33.25468236011455</v>
       </c>
       <c r="G42" t="n">
         <v>104.7712654402038</v>
       </c>
       <c r="H42" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>153.1173860389223</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>43.40960058039311</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.10931561104034</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>47.5193512042075</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>119.5811890611344</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>287.2219079706691</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.701627844419832</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.99499061398264</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4064,7 +4064,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>53.27739550686265</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
         <v>107.8702810193205</v>
@@ -4073,7 +4073,7 @@
         <v>104.7712654402038</v>
       </c>
       <c r="H45" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U45" t="n">
         <v>195.3017141927292</v>
@@ -4118,7 +4118,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>50.91629836426971</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>41.10931561104034</v>
       </c>
       <c r="S46" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.0375990857039</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>182.7431831745946</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>175.051001343515</v>
       </c>
     </row>
   </sheetData>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1566.659505376646</v>
+        <v>1102.546108132583</v>
       </c>
       <c r="C11" t="n">
-        <v>1566.659505376646</v>
+        <v>1102.546108132583</v>
       </c>
       <c r="D11" t="n">
-        <v>1566.659505376646</v>
+        <v>698.0821782256435</v>
       </c>
       <c r="E11" t="n">
-        <v>1152.319289893543</v>
+        <v>283.7419627425402</v>
       </c>
       <c r="F11" t="n">
-        <v>731.2888778472302</v>
+        <v>283.7419627425402</v>
       </c>
       <c r="G11" t="n">
-        <v>324.7296578907234</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H11" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I11" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J11" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K11" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L11" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M11" t="n">
-        <v>847.9396778919404</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N11" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O11" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P11" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q11" t="n">
         <v>1754.652407274058</v>
@@ -5068,25 +5068,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S11" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T11" t="n">
-        <v>1589.04303183634</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U11" t="n">
-        <v>1589.04303183634</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="V11" t="n">
-        <v>1566.659505376646</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="W11" t="n">
-        <v>1566.659505376646</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="X11" t="n">
-        <v>1566.659505376646</v>
+        <v>1102.546108132583</v>
       </c>
       <c r="Y11" t="n">
-        <v>1566.659505376646</v>
+        <v>1102.546108132583</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>516.3800136082286</v>
+        <v>546.8402830839849</v>
       </c>
       <c r="C12" t="n">
-        <v>382.3849423571743</v>
+        <v>412.8452118329306</v>
       </c>
       <c r="D12" t="n">
-        <v>265.4877845765667</v>
+        <v>412.8452118329306</v>
       </c>
       <c r="E12" t="n">
-        <v>144.9949685688946</v>
+        <v>292.3523958252586</v>
       </c>
       <c r="F12" t="n">
-        <v>36.03508875139924</v>
+        <v>183.3925160077631</v>
       </c>
       <c r="G12" t="n">
-        <v>36.03508875139924</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="H12" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I12" t="n">
-        <v>54.86182750109192</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4709909898561</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K12" t="n">
-        <v>557.4052142884218</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L12" t="n">
-        <v>748.8246068793846</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M12" t="n">
-        <v>980.0415409733446</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N12" t="n">
-        <v>1235.559971964092</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O12" t="n">
-        <v>1449.015881854029</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P12" t="n">
-        <v>1612.503176317612</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q12" t="n">
-        <v>1701.572828547835</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R12" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S12" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.090411268021</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.382680207123</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.671153200157</v>
+        <v>1236.10442548052</v>
       </c>
       <c r="W12" t="n">
-        <v>936.4379849364858</v>
+        <v>1022.871257216849</v>
       </c>
       <c r="X12" t="n">
-        <v>816.0850058799853</v>
+        <v>846.5452753557415</v>
       </c>
       <c r="Y12" t="n">
-        <v>656.6830462438153</v>
+        <v>687.1433157195715</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>371.7595870790915</v>
+        <v>600.9721087850954</v>
       </c>
       <c r="C13" t="n">
-        <v>200.666214640808</v>
+        <v>429.8787363468119</v>
       </c>
       <c r="D13" t="n">
-        <v>200.666214640808</v>
+        <v>429.8787363468119</v>
       </c>
       <c r="E13" t="n">
-        <v>200.666214640808</v>
+        <v>429.8787363468119</v>
       </c>
       <c r="F13" t="n">
-        <v>36.03508875139924</v>
+        <v>289.3987717845429</v>
       </c>
       <c r="G13" t="n">
-        <v>36.03508875139924</v>
+        <v>123.1213482153726</v>
       </c>
       <c r="H13" t="n">
-        <v>36.03508875139924</v>
+        <v>123.1213482153726</v>
       </c>
       <c r="I13" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J13" t="n">
         <v>117.5375436081382</v>
       </c>
       <c r="K13" t="n">
-        <v>382.8814865638251</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L13" t="n">
-        <v>784.5537101246232</v>
+        <v>784.5537101246234</v>
       </c>
       <c r="M13" t="n">
-        <v>1223.299755725552</v>
+        <v>972.5587010940882</v>
       </c>
       <c r="N13" t="n">
-        <v>1382.365583026367</v>
+        <v>1067.290823607627</v>
       </c>
       <c r="O13" t="n">
         <v>1461.639229994325</v>
       </c>
       <c r="P13" t="n">
-        <v>1782.648915084767</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q13" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R13" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S13" t="n">
-        <v>1590.794278295997</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T13" t="n">
-        <v>1355.402764068014</v>
+        <v>1566.362923341979</v>
       </c>
       <c r="U13" t="n">
-        <v>1076.872820104578</v>
+        <v>1566.362923341979</v>
       </c>
       <c r="V13" t="n">
-        <v>1076.872820104578</v>
+        <v>1292.477178281501</v>
       </c>
       <c r="W13" t="n">
-        <v>797.8031556134524</v>
+        <v>1013.407513790375</v>
       </c>
       <c r="X13" t="n">
-        <v>559.4592934731359</v>
+        <v>1013.407513790375</v>
       </c>
       <c r="Y13" t="n">
-        <v>559.4592934731359</v>
+        <v>788.6718151791398</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>435.4379618596558</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="C14" t="n">
-        <v>435.4379618596558</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="D14" t="n">
-        <v>327.4585749052889</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4585749052889</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="F14" t="n">
-        <v>327.4585749052889</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G14" t="n">
-        <v>327.4585749052889</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H14" t="n">
-        <v>38.76400576596473</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I14" t="n">
         <v>36.03508875139924</v>
@@ -5281,13 +5281,13 @@
         <v>143.8778192802977</v>
       </c>
       <c r="K14" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L14" t="n">
-        <v>567.0076014019887</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M14" t="n">
-        <v>847.9396778919404</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N14" t="n">
         <v>1135.28612147837</v>
@@ -5308,22 +5308,22 @@
         <v>1715.900911697252</v>
       </c>
       <c r="T14" t="n">
-        <v>1503.18950596363</v>
+        <v>1580.790796996149</v>
       </c>
       <c r="U14" t="n">
-        <v>1246.302539355193</v>
+        <v>1580.790796996149</v>
       </c>
       <c r="V14" t="n">
-        <v>1246.302539355193</v>
+        <v>1230.95324233263</v>
       </c>
       <c r="W14" t="n">
-        <v>1246.302539355193</v>
+        <v>847.1929414677986</v>
       </c>
       <c r="X14" t="n">
-        <v>845.6591415241453</v>
+        <v>847.1929414677986</v>
       </c>
       <c r="Y14" t="n">
-        <v>845.6591415241453</v>
+        <v>446.2562684158887</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>681.7483020962022</v>
+        <v>546.8402830839844</v>
       </c>
       <c r="C15" t="n">
-        <v>547.753230845148</v>
+        <v>412.8452118329301</v>
       </c>
       <c r="D15" t="n">
-        <v>430.8560730645404</v>
+        <v>412.8452118329301</v>
       </c>
       <c r="E15" t="n">
-        <v>310.3632570568684</v>
+        <v>292.3523958252581</v>
       </c>
       <c r="F15" t="n">
-        <v>201.403377239373</v>
+        <v>183.3925160077627</v>
       </c>
       <c r="G15" t="n">
-        <v>95.57381618866214</v>
+        <v>77.56295495705179</v>
       </c>
       <c r="H15" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="I15" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J15" t="n">
-        <v>92.64425224016347</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0510332309564</v>
+        <v>569.7515857563242</v>
       </c>
       <c r="L15" t="n">
-        <v>412.4704258219192</v>
+        <v>761.170978347287</v>
       </c>
       <c r="M15" t="n">
-        <v>643.6873599158791</v>
+        <v>992.3879124412471</v>
       </c>
       <c r="N15" t="n">
-        <v>886.8594194387238</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O15" t="n">
-        <v>1332.793642737289</v>
+        <v>1449.015881854029</v>
       </c>
       <c r="P15" t="n">
         <v>1612.503176317612</v>
@@ -5384,25 +5384,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S15" t="n">
-        <v>1715.321165289599</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T15" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.382680207123</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.671153200157</v>
+        <v>1236.104425480519</v>
       </c>
       <c r="W15" t="n">
-        <v>936.4379849364856</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X15" t="n">
-        <v>760.1120030753784</v>
+        <v>846.5452753557411</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.1120030753784</v>
+        <v>687.1433157195711</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>519.7022780173675</v>
+        <v>668.8113428982931</v>
       </c>
       <c r="C16" t="n">
-        <v>348.608905579084</v>
+        <v>668.8113428982931</v>
       </c>
       <c r="D16" t="n">
-        <v>189.114260901994</v>
+        <v>668.8113428982931</v>
       </c>
       <c r="E16" t="n">
-        <v>189.114260901994</v>
+        <v>507.9005277666125</v>
       </c>
       <c r="F16" t="n">
-        <v>189.114260901994</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="G16" t="n">
         <v>176.9919783080335</v>
@@ -5436,22 +5436,22 @@
         <v>36.03508875139924</v>
       </c>
       <c r="J16" t="n">
-        <v>52.53617997680178</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K16" t="n">
-        <v>111.5999293467746</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5386952873221</v>
+        <v>651.4766367315951</v>
       </c>
       <c r="M16" t="n">
-        <v>846.2847408882506</v>
+        <v>1090.222682332524</v>
       </c>
       <c r="N16" t="n">
-        <v>941.0168634017892</v>
+        <v>1516.989106293648</v>
       </c>
       <c r="O16" t="n">
-        <v>1335.365269788488</v>
+        <v>1596.262753261606</v>
       </c>
       <c r="P16" t="n">
         <v>1656.37495487893</v>
@@ -5466,22 +5466,22 @@
         <v>1590.794278295997</v>
       </c>
       <c r="T16" t="n">
-        <v>1355.402764068013</v>
+        <v>1590.794278295997</v>
       </c>
       <c r="U16" t="n">
-        <v>1072.657687568971</v>
+        <v>1590.794278295997</v>
       </c>
       <c r="V16" t="n">
-        <v>798.7719425084931</v>
+        <v>1319.590610043889</v>
       </c>
       <c r="W16" t="n">
-        <v>519.7022780173675</v>
+        <v>1319.590610043889</v>
       </c>
       <c r="X16" t="n">
-        <v>519.7022780173675</v>
+        <v>1081.246747903573</v>
       </c>
       <c r="Y16" t="n">
-        <v>519.7022780173675</v>
+        <v>856.5110492923375</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>948.3957643630711</v>
+        <v>440.4990186583387</v>
       </c>
       <c r="C17" t="n">
-        <v>948.3957643630711</v>
+        <v>440.4990186583387</v>
       </c>
       <c r="D17" t="n">
-        <v>745.760069937036</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="E17" t="n">
-        <v>745.760069937036</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="F17" t="n">
-        <v>324.7296578907234</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G17" t="n">
-        <v>324.7296578907234</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H17" t="n">
         <v>36.03508875139924</v>
@@ -5515,25 +5515,25 @@
         <v>36.03508875139924</v>
       </c>
       <c r="J17" t="n">
-        <v>143.8778192802984</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K17" t="n">
-        <v>326.0552168887702</v>
+        <v>326.0552168887693</v>
       </c>
       <c r="L17" t="n">
-        <v>567.0076014019892</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M17" t="n">
-        <v>847.9396778919408</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N17" t="n">
-        <v>1135.286121478371</v>
+        <v>1135.28612147837</v>
       </c>
       <c r="O17" t="n">
-        <v>1401.21843916599</v>
+        <v>1401.218439165989</v>
       </c>
       <c r="P17" t="n">
-        <v>1614.212614402881</v>
+        <v>1614.21261440288</v>
       </c>
       <c r="Q17" t="n">
         <v>1754.652407274058</v>
@@ -5542,25 +5542,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S17" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T17" t="n">
-        <v>1589.043031836339</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U17" t="n">
-        <v>1332.156065227902</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="V17" t="n">
-        <v>1332.156065227902</v>
+        <v>1153.351951300111</v>
       </c>
       <c r="W17" t="n">
-        <v>948.3957643630711</v>
+        <v>1153.351951300111</v>
       </c>
       <c r="X17" t="n">
-        <v>948.3957643630711</v>
+        <v>1153.351951300111</v>
       </c>
       <c r="Y17" t="n">
-        <v>948.3957643630711</v>
+        <v>752.4152782482007</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>673.6401790672929</v>
+        <v>681.7483020962025</v>
       </c>
       <c r="C18" t="n">
-        <v>539.6451078162386</v>
+        <v>547.7532308451481</v>
       </c>
       <c r="D18" t="n">
-        <v>422.747950035631</v>
+        <v>430.8560730645405</v>
       </c>
       <c r="E18" t="n">
-        <v>302.255134027959</v>
+        <v>310.3632570568685</v>
       </c>
       <c r="F18" t="n">
-        <v>193.2952542104636</v>
+        <v>201.403377239373</v>
       </c>
       <c r="G18" t="n">
-        <v>87.46569315975269</v>
+        <v>95.57381618866215</v>
       </c>
       <c r="H18" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="I18" t="n">
-        <v>54.86182750109191</v>
+        <v>54.86182750109192</v>
       </c>
       <c r="J18" t="n">
-        <v>111.4709909898561</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K18" t="n">
-        <v>240.2418492529792</v>
+        <v>569.7515857563244</v>
       </c>
       <c r="L18" t="n">
-        <v>431.6612418439419</v>
+        <v>761.1709783472872</v>
       </c>
       <c r="M18" t="n">
-        <v>877.5954651425075</v>
+        <v>992.3879124412472</v>
       </c>
       <c r="N18" t="n">
-        <v>1323.529688441073</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O18" t="n">
-        <v>1536.985598331011</v>
+        <v>1449.015881854029</v>
       </c>
       <c r="P18" t="n">
-        <v>1700.472892794593</v>
+        <v>1612.503176317612</v>
       </c>
       <c r="Q18" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R18" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S18" t="n">
-        <v>1715.321165289599</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T18" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U18" t="n">
-        <v>1363.382680207123</v>
+        <v>1584.723971499704</v>
       </c>
       <c r="V18" t="n">
-        <v>1149.671153200157</v>
+        <v>1371.012444492737</v>
       </c>
       <c r="W18" t="n">
-        <v>1149.671153200157</v>
+        <v>1157.779276229066</v>
       </c>
       <c r="X18" t="n">
-        <v>973.3451713390496</v>
+        <v>981.4532943679591</v>
       </c>
       <c r="Y18" t="n">
-        <v>813.9432117028796</v>
+        <v>822.0513347317891</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.03508875139924</v>
+        <v>542.1639720248238</v>
       </c>
       <c r="C19" t="n">
-        <v>36.03508875139924</v>
+        <v>371.0705995865403</v>
       </c>
       <c r="D19" t="n">
-        <v>36.03508875139924</v>
+        <v>211.5759549094503</v>
       </c>
       <c r="E19" t="n">
-        <v>36.03508875139924</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="F19" t="n">
-        <v>36.03508875139924</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="G19" t="n">
-        <v>36.03508875139924</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="H19" t="n">
         <v>36.03508875139924</v>
@@ -5679,19 +5679,19 @@
         <v>176.601292978111</v>
       </c>
       <c r="L19" t="n">
-        <v>578.2735165389091</v>
+        <v>336.4018773128549</v>
       </c>
       <c r="M19" t="n">
-        <v>672.0532126255521</v>
+        <v>775.1479229137833</v>
       </c>
       <c r="N19" t="n">
-        <v>1067.290823607626</v>
+        <v>1201.914346874908</v>
       </c>
       <c r="O19" t="n">
-        <v>1461.639229994325</v>
+        <v>1596.262753261606</v>
       </c>
       <c r="P19" t="n">
-        <v>1782.648915084767</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q19" t="n">
         <v>1801.754437569962</v>
@@ -5700,25 +5700,25 @@
         <v>1760.229876346689</v>
       </c>
       <c r="S19" t="n">
-        <v>1590.794278295997</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="T19" t="n">
-        <v>1355.402764068013</v>
+        <v>1524.838362118705</v>
       </c>
       <c r="U19" t="n">
-        <v>1072.657687568971</v>
+        <v>1242.093285619663</v>
       </c>
       <c r="V19" t="n">
-        <v>798.7719425084931</v>
+        <v>968.2075405591847</v>
       </c>
       <c r="W19" t="n">
-        <v>519.7022780173675</v>
+        <v>968.2075405591847</v>
       </c>
       <c r="X19" t="n">
-        <v>281.3584158770508</v>
+        <v>729.8636784188682</v>
       </c>
       <c r="Y19" t="n">
-        <v>223.7347951454436</v>
+        <v>729.8636784188682</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>581.6596583378537</v>
+        <v>450.3753042345026</v>
       </c>
       <c r="C20" t="n">
-        <v>171.5350676511238</v>
+        <v>450.3753042345026</v>
       </c>
       <c r="D20" t="n">
-        <v>171.5350676511238</v>
+        <v>450.3753042345026</v>
       </c>
       <c r="E20" t="n">
-        <v>171.5350676511238</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="F20" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G20" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H20" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I20" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J20" t="n">
-        <v>143.8778192802976</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K20" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L20" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M20" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N20" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O20" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P20" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q20" t="n">
         <v>1754.652407274058</v>
@@ -5782,22 +5782,22 @@
         <v>1715.900911697252</v>
       </c>
       <c r="T20" t="n">
-        <v>1715.900911697252</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U20" t="n">
-        <v>1715.900911697252</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="V20" t="n">
-        <v>1366.063357033732</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="W20" t="n">
-        <v>982.3030561689011</v>
+        <v>1261.23988173004</v>
       </c>
       <c r="X20" t="n">
-        <v>581.6596583378537</v>
+        <v>860.596483898992</v>
       </c>
       <c r="Y20" t="n">
-        <v>581.6596583378537</v>
+        <v>860.596483898992</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>513.2496948414441</v>
+        <v>657.6814695841566</v>
       </c>
       <c r="C21" t="n">
-        <v>379.2546235903898</v>
+        <v>523.6863983331023</v>
       </c>
       <c r="D21" t="n">
-        <v>262.3574658097822</v>
+        <v>406.7892405524947</v>
       </c>
       <c r="E21" t="n">
-        <v>141.8646498021101</v>
+        <v>286.2964245448227</v>
       </c>
       <c r="F21" t="n">
-        <v>141.8646498021101</v>
+        <v>177.3365447273273</v>
       </c>
       <c r="G21" t="n">
-        <v>36.03508875139923</v>
+        <v>71.50698367661637</v>
       </c>
       <c r="H21" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I21" t="n">
-        <v>36.03508875139923</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J21" t="n">
-        <v>92.64425224016347</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0510332309564</v>
+        <v>483.5461759552824</v>
       </c>
       <c r="L21" t="n">
-        <v>666.9852565295218</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M21" t="n">
-        <v>898.2021906234818</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N21" t="n">
-        <v>1141.374250146326</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O21" t="n">
-        <v>1354.830160036264</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P21" t="n">
-        <v>1518.317454499847</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q21" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R21" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S21" t="n">
-        <v>1715.321165289599</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T21" t="n">
-        <v>1560.657138987657</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U21" t="n">
-        <v>1363.382680207123</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="V21" t="n">
-        <v>1149.671153200157</v>
+        <v>1346.945611980692</v>
       </c>
       <c r="W21" t="n">
-        <v>936.4379849364853</v>
+        <v>1133.712443717021</v>
       </c>
       <c r="X21" t="n">
-        <v>760.1120030753782</v>
+        <v>957.3864618559132</v>
       </c>
       <c r="Y21" t="n">
-        <v>600.7100434392082</v>
+        <v>797.9845022197433</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.03508875139923</v>
+        <v>532.670402210772</v>
       </c>
       <c r="C22" t="n">
-        <v>36.03508875139923</v>
+        <v>361.5770297724885</v>
       </c>
       <c r="D22" t="n">
-        <v>36.03508875139923</v>
+        <v>361.5770297724885</v>
       </c>
       <c r="E22" t="n">
-        <v>36.03508875139923</v>
+        <v>200.666214640808</v>
       </c>
       <c r="F22" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G22" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H22" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I22" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J22" t="n">
         <v>117.5375436081382</v>
       </c>
       <c r="K22" t="n">
-        <v>382.8814865638251</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L22" t="n">
-        <v>784.5537101246232</v>
+        <v>784.5537101246234</v>
       </c>
       <c r="M22" t="n">
         <v>1223.299755725552</v>
       </c>
       <c r="N22" t="n">
-        <v>1516.989106293648</v>
+        <v>1318.031878239091</v>
       </c>
       <c r="O22" t="n">
-        <v>1596.262753261605</v>
+        <v>1397.305525207049</v>
       </c>
       <c r="P22" t="n">
-        <v>1656.37495487893</v>
+        <v>1718.315210297491</v>
       </c>
       <c r="Q22" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R22" t="n">
-        <v>1760.229876346688</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S22" t="n">
-        <v>1590.794278295997</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T22" t="n">
-        <v>1355.402764068013</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="U22" t="n">
-        <v>1072.657687568971</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="V22" t="n">
-        <v>798.7719425084931</v>
+        <v>1358.433094458793</v>
       </c>
       <c r="W22" t="n">
-        <v>519.7022780173675</v>
+        <v>1079.363429967667</v>
       </c>
       <c r="X22" t="n">
-        <v>281.3584158770508</v>
+        <v>945.1058072160516</v>
       </c>
       <c r="Y22" t="n">
-        <v>223.7347951454436</v>
+        <v>720.3701086048163</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>847.0582386148455</v>
+        <v>1155.048206908108</v>
       </c>
       <c r="C23" t="n">
-        <v>847.0582386148455</v>
+        <v>1155.048206908108</v>
       </c>
       <c r="D23" t="n">
-        <v>442.594308707906</v>
+        <v>1155.048206908108</v>
       </c>
       <c r="E23" t="n">
-        <v>442.594308707906</v>
+        <v>1155.048206908108</v>
       </c>
       <c r="F23" t="n">
-        <v>442.594308707906</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="G23" t="n">
-        <v>36.03508875139924</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="H23" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I23" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="J23" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802976</v>
       </c>
       <c r="K23" t="n">
         <v>326.0552168887696</v>
       </c>
       <c r="L23" t="n">
-        <v>567.0076014019887</v>
+        <v>567.0076014019884</v>
       </c>
       <c r="M23" t="n">
-        <v>847.9396778919404</v>
+        <v>847.9396778919406</v>
       </c>
       <c r="N23" t="n">
         <v>1135.28612147837</v>
@@ -6007,7 +6007,7 @@
         <v>1401.21843916599</v>
       </c>
       <c r="P23" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q23" t="n">
         <v>1754.652407274058</v>
@@ -6016,25 +6016,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T23" t="n">
-        <v>1715.900911697252</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="U23" t="n">
-        <v>1715.900911697252</v>
+        <v>1332.156065227903</v>
       </c>
       <c r="V23" t="n">
-        <v>1366.063357033733</v>
+        <v>1155.048206908108</v>
       </c>
       <c r="W23" t="n">
-        <v>982.3030561689015</v>
+        <v>1155.048206908108</v>
       </c>
       <c r="X23" t="n">
-        <v>847.0582386148455</v>
+        <v>1155.048206908108</v>
       </c>
       <c r="Y23" t="n">
-        <v>847.0582386148455</v>
+        <v>1155.048206908108</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>513.2496948414441</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C24" t="n">
-        <v>379.2546235903898</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D24" t="n">
-        <v>262.3574658097822</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E24" t="n">
-        <v>141.8646498021101</v>
+        <v>144.9949685688946</v>
       </c>
       <c r="F24" t="n">
-        <v>141.8646498021101</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G24" t="n">
         <v>36.03508875139924</v>
@@ -6065,55 +6065,55 @@
         <v>36.03508875139924</v>
       </c>
       <c r="I24" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109192</v>
       </c>
       <c r="J24" t="n">
-        <v>92.64425224016347</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0510332309564</v>
+        <v>483.5461759552823</v>
       </c>
       <c r="L24" t="n">
-        <v>558.4088145715663</v>
+        <v>674.9655685462451</v>
       </c>
       <c r="M24" t="n">
-        <v>789.6257486655262</v>
+        <v>906.182502640205</v>
       </c>
       <c r="N24" t="n">
-        <v>1235.559971964092</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O24" t="n">
-        <v>1449.015881854029</v>
+        <v>1362.810472052987</v>
       </c>
       <c r="P24" t="n">
-        <v>1612.503176317612</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q24" t="n">
-        <v>1701.572828547835</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R24" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S24" t="n">
-        <v>1715.3211652896</v>
+        <v>1771.294168094206</v>
       </c>
       <c r="T24" t="n">
-        <v>1560.657138987658</v>
+        <v>1616.630141792265</v>
       </c>
       <c r="U24" t="n">
-        <v>1363.382680207123</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V24" t="n">
-        <v>1149.671153200157</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W24" t="n">
-        <v>936.4379849364858</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X24" t="n">
-        <v>812.9546871132007</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y24" t="n">
-        <v>653.5527274770308</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>532.900529435943</v>
+        <v>746.1480581456909</v>
       </c>
       <c r="C25" t="n">
-        <v>361.8071569976595</v>
+        <v>746.1480581456909</v>
       </c>
       <c r="D25" t="n">
-        <v>202.3125123205695</v>
+        <v>586.653413468601</v>
       </c>
       <c r="E25" t="n">
-        <v>202.3125123205695</v>
+        <v>425.7425983369205</v>
       </c>
       <c r="F25" t="n">
-        <v>202.3125123205695</v>
+        <v>261.1114724475117</v>
       </c>
       <c r="G25" t="n">
-        <v>36.03508875139924</v>
+        <v>94.83404887834146</v>
       </c>
       <c r="H25" t="n">
         <v>36.03508875139924</v>
@@ -6153,13 +6153,13 @@
         <v>317.8801229324887</v>
       </c>
       <c r="L25" t="n">
-        <v>405.5732352582638</v>
+        <v>407.5386952873226</v>
       </c>
       <c r="M25" t="n">
-        <v>514.2504394406653</v>
+        <v>846.284740888251</v>
       </c>
       <c r="N25" t="n">
-        <v>941.0168634017895</v>
+        <v>941.0168634017897</v>
       </c>
       <c r="O25" t="n">
         <v>1335.365269788488</v>
@@ -6171,28 +6171,28 @@
         <v>1801.754437569962</v>
       </c>
       <c r="R25" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S25" t="n">
-        <v>1590.794278295997</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T25" t="n">
-        <v>1355.402764068014</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.402764068014</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="V25" t="n">
-        <v>1355.402764068014</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="W25" t="n">
-        <v>1183.679796581539</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="X25" t="n">
-        <v>945.3359344412227</v>
+        <v>1158.583463150971</v>
       </c>
       <c r="Y25" t="n">
-        <v>720.6002358299874</v>
+        <v>933.8477645397353</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>745.760069937036</v>
+        <v>1682.428866144261</v>
       </c>
       <c r="C26" t="n">
-        <v>745.760069937036</v>
+        <v>1682.428866144261</v>
       </c>
       <c r="D26" t="n">
-        <v>745.760069937036</v>
+        <v>1277.964936237322</v>
       </c>
       <c r="E26" t="n">
-        <v>745.760069937036</v>
+        <v>863.6247207542185</v>
       </c>
       <c r="F26" t="n">
-        <v>324.7296578907234</v>
+        <v>442.594308707906</v>
       </c>
       <c r="G26" t="n">
-        <v>324.7296578907234</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H26" t="n">
         <v>36.03508875139924</v>
@@ -6226,16 +6226,16 @@
         <v>36.03508875139924</v>
       </c>
       <c r="J26" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802979</v>
       </c>
       <c r="K26" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L26" t="n">
-        <v>567.0076014019887</v>
+        <v>567.0076014019889</v>
       </c>
       <c r="M26" t="n">
-        <v>847.9396778919404</v>
+        <v>847.9396778919406</v>
       </c>
       <c r="N26" t="n">
         <v>1135.28612147837</v>
@@ -6244,7 +6244,7 @@
         <v>1401.21843916599</v>
       </c>
       <c r="P26" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q26" t="n">
         <v>1754.652407274058</v>
@@ -6253,25 +6253,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T26" t="n">
-        <v>1503.18950596363</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U26" t="n">
-        <v>1246.302539355193</v>
+        <v>1682.428866144261</v>
       </c>
       <c r="V26" t="n">
-        <v>1246.302539355193</v>
+        <v>1682.428866144261</v>
       </c>
       <c r="W26" t="n">
-        <v>1246.302539355193</v>
+        <v>1682.428866144261</v>
       </c>
       <c r="X26" t="n">
-        <v>1246.302539355193</v>
+        <v>1682.428866144261</v>
       </c>
       <c r="Y26" t="n">
-        <v>1155.981249601525</v>
+        <v>1682.428866144261</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>460.407010803622</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C27" t="n">
-        <v>326.4119395525677</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D27" t="n">
-        <v>325.0265120138296</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E27" t="n">
-        <v>204.5336960061576</v>
+        <v>144.9949685688946</v>
       </c>
       <c r="F27" t="n">
-        <v>95.57381618866215</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G27" t="n">
-        <v>95.57381618866215</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H27" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="I27" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109192</v>
       </c>
       <c r="J27" t="n">
-        <v>92.64425224016347</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0510332309564</v>
+        <v>483.5461759552823</v>
       </c>
       <c r="L27" t="n">
-        <v>412.4704258219192</v>
+        <v>674.9655685462451</v>
       </c>
       <c r="M27" t="n">
-        <v>643.6873599158791</v>
+        <v>906.182502640205</v>
       </c>
       <c r="N27" t="n">
-        <v>886.8594194387238</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O27" t="n">
-        <v>1100.315329328661</v>
+        <v>1362.810472052987</v>
       </c>
       <c r="P27" t="n">
-        <v>1546.249552627227</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q27" t="n">
-        <v>1701.572828547835</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R27" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S27" t="n">
-        <v>1715.3211652896</v>
+        <v>1771.294168094206</v>
       </c>
       <c r="T27" t="n">
-        <v>1560.657138987658</v>
+        <v>1616.630141792265</v>
       </c>
       <c r="U27" t="n">
-        <v>1363.382680207123</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V27" t="n">
-        <v>1149.671153200157</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W27" t="n">
-        <v>936.4379849364858</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X27" t="n">
-        <v>760.1120030753787</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y27" t="n">
-        <v>600.7100434392087</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>423.5728824490969</v>
+        <v>698.9478257799423</v>
       </c>
       <c r="C28" t="n">
-        <v>423.5728824490969</v>
+        <v>527.8544533416588</v>
       </c>
       <c r="D28" t="n">
-        <v>264.0782377720069</v>
+        <v>527.8544533416588</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0782377720069</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="F28" t="n">
-        <v>264.0782377720069</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G28" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H28" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I28" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="J28" t="n">
-        <v>52.53617997680179</v>
+        <v>55.59728818957774</v>
       </c>
       <c r="K28" t="n">
-        <v>317.8801229324887</v>
+        <v>320.9412311452647</v>
       </c>
       <c r="L28" t="n">
-        <v>420.4707433540224</v>
+        <v>722.6134547060628</v>
       </c>
       <c r="M28" t="n">
-        <v>514.2504394406653</v>
+        <v>1161.359500306991</v>
       </c>
       <c r="N28" t="n">
-        <v>941.0168634017895</v>
+        <v>1256.09162282053</v>
       </c>
       <c r="O28" t="n">
         <v>1335.365269788488</v>
@@ -6411,25 +6411,25 @@
         <v>1760.229876346689</v>
       </c>
       <c r="S28" t="n">
-        <v>1590.794278295997</v>
+        <v>1678.669867961491</v>
       </c>
       <c r="T28" t="n">
-        <v>1355.402764068014</v>
+        <v>1443.278353733507</v>
       </c>
       <c r="U28" t="n">
-        <v>1072.657687568972</v>
+        <v>1160.533277234465</v>
       </c>
       <c r="V28" t="n">
-        <v>927.3782455514579</v>
+        <v>886.6475321739866</v>
       </c>
       <c r="W28" t="n">
-        <v>648.3085810603322</v>
+        <v>886.6475321739866</v>
       </c>
       <c r="X28" t="n">
-        <v>648.3085810603322</v>
+        <v>886.6475321739866</v>
       </c>
       <c r="Y28" t="n">
-        <v>423.5728824490969</v>
+        <v>886.6475321739866</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>453.104221249068</v>
+        <v>863.6247207542185</v>
       </c>
       <c r="C29" t="n">
-        <v>453.104221249068</v>
+        <v>863.6247207542185</v>
       </c>
       <c r="D29" t="n">
-        <v>453.104221249068</v>
+        <v>863.6247207542185</v>
       </c>
       <c r="E29" t="n">
-        <v>38.76400576596472</v>
+        <v>863.6247207542185</v>
       </c>
       <c r="F29" t="n">
-        <v>38.76400576596472</v>
+        <v>442.594308707906</v>
       </c>
       <c r="G29" t="n">
-        <v>38.76400576596472</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H29" t="n">
-        <v>38.76400576596472</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I29" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J29" t="n">
-        <v>143.8778192802976</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K29" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887693</v>
       </c>
       <c r="L29" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M29" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N29" t="n">
         <v>1135.28612147837</v>
@@ -6490,25 +6490,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S29" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T29" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U29" t="n">
-        <v>1459.013945088815</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="V29" t="n">
-        <v>1459.013945088815</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="W29" t="n">
-        <v>1075.253644223983</v>
+        <v>1417.994136705131</v>
       </c>
       <c r="X29" t="n">
-        <v>863.3254009135575</v>
+        <v>1264.561393806128</v>
       </c>
       <c r="Y29" t="n">
-        <v>863.3254009135575</v>
+        <v>863.6247207542185</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>636.7329926647287</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C30" t="n">
-        <v>502.7379214136744</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D30" t="n">
-        <v>385.8407636330668</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E30" t="n">
-        <v>265.3479476253948</v>
+        <v>144.9949685688946</v>
       </c>
       <c r="F30" t="n">
-        <v>201.403377239373</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G30" t="n">
-        <v>95.57381618866214</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H30" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I30" t="n">
-        <v>54.86182750109191</v>
+        <v>54.86182750109192</v>
       </c>
       <c r="J30" t="n">
-        <v>111.4709909898561</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K30" t="n">
-        <v>239.8777719806491</v>
+        <v>483.5461759552823</v>
       </c>
       <c r="L30" t="n">
-        <v>431.2971645716119</v>
+        <v>674.9655685462451</v>
       </c>
       <c r="M30" t="n">
-        <v>662.5140986655719</v>
+        <v>906.182502640205</v>
       </c>
       <c r="N30" t="n">
-        <v>905.6861581884166</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O30" t="n">
-        <v>1119.142068078354</v>
+        <v>1362.810472052987</v>
       </c>
       <c r="P30" t="n">
-        <v>1282.629362541937</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q30" t="n">
-        <v>1728.563585840502</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R30" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S30" t="n">
-        <v>1715.321165289599</v>
+        <v>1771.294168094206</v>
       </c>
       <c r="T30" t="n">
-        <v>1560.657138987657</v>
+        <v>1616.630141792265</v>
       </c>
       <c r="U30" t="n">
-        <v>1363.382680207123</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V30" t="n">
-        <v>1149.671153200157</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W30" t="n">
-        <v>936.4379849364853</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X30" t="n">
-        <v>936.4379849364853</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y30" t="n">
-        <v>777.0360253003154</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>348.085350746317</v>
+        <v>692.165046887862</v>
       </c>
       <c r="C31" t="n">
-        <v>176.9919783080335</v>
+        <v>521.0716744495785</v>
       </c>
       <c r="D31" t="n">
-        <v>176.9919783080335</v>
+        <v>361.5770297724885</v>
       </c>
       <c r="E31" t="n">
-        <v>176.9919783080335</v>
+        <v>200.666214640808</v>
       </c>
       <c r="F31" t="n">
-        <v>176.9919783080335</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G31" t="n">
-        <v>176.9919783080335</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H31" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I31" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J31" t="n">
-        <v>117.5375436081382</v>
+        <v>52.53617997680179</v>
       </c>
       <c r="K31" t="n">
-        <v>176.601292978111</v>
+        <v>111.5999293467746</v>
       </c>
       <c r="L31" t="n">
-        <v>264.294405303886</v>
+        <v>462.6758375186917</v>
       </c>
       <c r="M31" t="n">
-        <v>703.0404509048144</v>
+        <v>901.4218831196201</v>
       </c>
       <c r="N31" t="n">
-        <v>1129.806874865939</v>
+        <v>1328.188307080744</v>
       </c>
       <c r="O31" t="n">
-        <v>1461.639229994325</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P31" t="n">
         <v>1782.648915084767</v>
@@ -6645,28 +6645,28 @@
         <v>1801.754437569962</v>
       </c>
       <c r="R31" t="n">
-        <v>1760.229876346688</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S31" t="n">
-        <v>1590.794278295997</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T31" t="n">
-        <v>1355.402764068013</v>
+        <v>1616.830059093936</v>
       </c>
       <c r="U31" t="n">
-        <v>1072.657687568971</v>
+        <v>1616.830059093936</v>
       </c>
       <c r="V31" t="n">
-        <v>1039.590420242722</v>
+        <v>1342.944314033458</v>
       </c>
       <c r="W31" t="n">
-        <v>760.5207557515968</v>
+        <v>1342.944314033458</v>
       </c>
       <c r="X31" t="n">
-        <v>760.5207557515968</v>
+        <v>1104.600451893142</v>
       </c>
       <c r="Y31" t="n">
-        <v>535.7850571403615</v>
+        <v>879.8647532819064</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>446.1596794381292</v>
+        <v>874.1346332953805</v>
       </c>
       <c r="C32" t="n">
-        <v>36.03508875139923</v>
+        <v>874.1346332953805</v>
       </c>
       <c r="D32" t="n">
-        <v>36.03508875139923</v>
+        <v>874.1346332953805</v>
       </c>
       <c r="E32" t="n">
-        <v>36.03508875139923</v>
+        <v>459.7944178122772</v>
       </c>
       <c r="F32" t="n">
-        <v>36.03508875139923</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="G32" t="n">
-        <v>36.03508875139923</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H32" t="n">
-        <v>36.03508875139923</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I32" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J32" t="n">
-        <v>143.8778192802976</v>
+        <v>143.8778192802982</v>
       </c>
       <c r="K32" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887701</v>
       </c>
       <c r="L32" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019889</v>
       </c>
       <c r="M32" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919406</v>
       </c>
       <c r="N32" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O32" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P32" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q32" t="n">
         <v>1754.652407274058</v>
@@ -6730,22 +6730,22 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T32" t="n">
-        <v>1589.043031836339</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="U32" t="n">
-        <v>1332.156065227902</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="V32" t="n">
-        <v>1257.317532154529</v>
+        <v>1239.20547717282</v>
       </c>
       <c r="W32" t="n">
-        <v>1257.317532154529</v>
+        <v>1239.20547717282</v>
       </c>
       <c r="X32" t="n">
-        <v>1257.317532154529</v>
+        <v>1239.20547717282</v>
       </c>
       <c r="Y32" t="n">
-        <v>856.3808591026186</v>
+        <v>874.1346332953805</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>460.4070108036216</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C33" t="n">
-        <v>326.4119395525673</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D33" t="n">
-        <v>209.5147817719597</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E33" t="n">
-        <v>201.403377239373</v>
+        <v>144.9949685688946</v>
       </c>
       <c r="F33" t="n">
-        <v>201.403377239373</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G33" t="n">
-        <v>95.57381618866214</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H33" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I33" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J33" t="n">
-        <v>92.64425224016347</v>
+        <v>336.3126562147967</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0510332309564</v>
+        <v>464.7194372055897</v>
       </c>
       <c r="L33" t="n">
-        <v>412.4704258219192</v>
+        <v>656.1388297965525</v>
       </c>
       <c r="M33" t="n">
-        <v>643.6873599158791</v>
+        <v>887.3557638905124</v>
       </c>
       <c r="N33" t="n">
-        <v>886.8594194387238</v>
+        <v>1130.527823413357</v>
       </c>
       <c r="O33" t="n">
-        <v>1332.793642737289</v>
+        <v>1343.983733303295</v>
       </c>
       <c r="P33" t="n">
-        <v>1496.280937200872</v>
+        <v>1507.471027766877</v>
       </c>
       <c r="Q33" t="n">
         <v>1789.542545024816</v>
@@ -6806,25 +6806,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S33" t="n">
-        <v>1715.321165289599</v>
+        <v>1771.294168094206</v>
       </c>
       <c r="T33" t="n">
-        <v>1560.657138987657</v>
+        <v>1616.630141792265</v>
       </c>
       <c r="U33" t="n">
-        <v>1363.382680207123</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V33" t="n">
-        <v>1149.671153200157</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W33" t="n">
-        <v>936.4379849364853</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X33" t="n">
-        <v>760.1120030753782</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y33" t="n">
-        <v>600.7100434392082</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>207.1284611896827</v>
+        <v>668.8113428982931</v>
       </c>
       <c r="C34" t="n">
-        <v>36.03508875139923</v>
+        <v>668.8113428982931</v>
       </c>
       <c r="D34" t="n">
-        <v>36.03508875139923</v>
+        <v>668.8113428982931</v>
       </c>
       <c r="E34" t="n">
-        <v>36.03508875139923</v>
+        <v>507.9005277666125</v>
       </c>
       <c r="F34" t="n">
-        <v>36.03508875139923</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="G34" t="n">
-        <v>36.03508875139923</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="H34" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I34" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J34" t="n">
-        <v>52.53617997680178</v>
+        <v>52.53617997680179</v>
       </c>
       <c r="K34" t="n">
         <v>111.5999293467746</v>
       </c>
       <c r="L34" t="n">
-        <v>513.2721529075728</v>
+        <v>462.6758375186917</v>
       </c>
       <c r="M34" t="n">
-        <v>952.0181985085012</v>
+        <v>901.4218831196201</v>
       </c>
       <c r="N34" t="n">
-        <v>1256.09162282053</v>
+        <v>1328.188307080744</v>
       </c>
       <c r="O34" t="n">
-        <v>1335.365269788487</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P34" t="n">
-        <v>1656.37495487893</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q34" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R34" t="n">
-        <v>1760.229876346688</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="S34" t="n">
-        <v>1590.794278295997</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="T34" t="n">
-        <v>1355.402764068013</v>
+        <v>1524.838362118705</v>
       </c>
       <c r="U34" t="n">
-        <v>1072.657687568971</v>
+        <v>1410.960568140971</v>
       </c>
       <c r="V34" t="n">
-        <v>798.7719425084931</v>
+        <v>1410.960568140971</v>
       </c>
       <c r="W34" t="n">
-        <v>519.7022780173675</v>
+        <v>1131.890903649845</v>
       </c>
       <c r="X34" t="n">
-        <v>519.7022780173675</v>
+        <v>893.5470415095284</v>
       </c>
       <c r="Y34" t="n">
-        <v>294.9665794061322</v>
+        <v>668.8113428982931</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1109.176390425296</v>
+        <v>442.594308707906</v>
       </c>
       <c r="C35" t="n">
-        <v>1109.176390425296</v>
+        <v>442.594308707906</v>
       </c>
       <c r="D35" t="n">
-        <v>1109.176390425296</v>
+        <v>442.594308707906</v>
       </c>
       <c r="E35" t="n">
-        <v>694.8361749421927</v>
+        <v>442.594308707906</v>
       </c>
       <c r="F35" t="n">
-        <v>694.8361749421927</v>
+        <v>442.594308707906</v>
       </c>
       <c r="G35" t="n">
-        <v>324.7296578907234</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="H35" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="I35" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="J35" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802976</v>
       </c>
       <c r="K35" t="n">
         <v>326.0552168887696</v>
       </c>
       <c r="L35" t="n">
-        <v>567.0076014019887</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M35" t="n">
-        <v>847.9396778919404</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N35" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O35" t="n">
-        <v>1401.21843916599</v>
+        <v>1401.218439165989</v>
       </c>
       <c r="P35" t="n">
         <v>1614.21261440288</v>
@@ -6967,22 +6967,22 @@
         <v>1715.900911697252</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.900911697252</v>
+        <v>1503.189505963629</v>
       </c>
       <c r="U35" t="n">
-        <v>1459.013945088815</v>
+        <v>1246.302539355192</v>
       </c>
       <c r="V35" t="n">
-        <v>1109.176390425296</v>
+        <v>1246.302539355192</v>
       </c>
       <c r="W35" t="n">
-        <v>1109.176390425296</v>
+        <v>1246.302539355192</v>
       </c>
       <c r="X35" t="n">
-        <v>1109.176390425296</v>
+        <v>845.6591415241451</v>
       </c>
       <c r="Y35" t="n">
-        <v>1109.176390425296</v>
+        <v>444.7224684722352</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>460.407010803622</v>
+        <v>546.840283083984</v>
       </c>
       <c r="C36" t="n">
-        <v>326.4119395525677</v>
+        <v>412.8452118329297</v>
       </c>
       <c r="D36" t="n">
-        <v>209.5147817719601</v>
+        <v>295.9480540523221</v>
       </c>
       <c r="E36" t="n">
-        <v>201.403377239373</v>
+        <v>175.4552380446501</v>
       </c>
       <c r="F36" t="n">
-        <v>201.403377239373</v>
+        <v>66.49535822715467</v>
       </c>
       <c r="G36" t="n">
-        <v>95.57381618866215</v>
+        <v>66.49535822715467</v>
       </c>
       <c r="H36" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="I36" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109191</v>
       </c>
       <c r="J36" t="n">
-        <v>326.5523574667917</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K36" t="n">
-        <v>454.9591384575846</v>
+        <v>483.5461759552823</v>
       </c>
       <c r="L36" t="n">
-        <v>646.3785310485474</v>
+        <v>674.9655685462451</v>
       </c>
       <c r="M36" t="n">
-        <v>877.5954651425074</v>
+        <v>906.182502640205</v>
       </c>
       <c r="N36" t="n">
-        <v>1323.529688441073</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O36" t="n">
-        <v>1536.985598331011</v>
+        <v>1362.810472052987</v>
       </c>
       <c r="P36" t="n">
-        <v>1700.472892794593</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q36" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R36" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S36" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T36" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U36" t="n">
-        <v>1363.382680207123</v>
+        <v>1449.815952487485</v>
       </c>
       <c r="V36" t="n">
-        <v>1149.671153200157</v>
+        <v>1236.104425480519</v>
       </c>
       <c r="W36" t="n">
-        <v>936.4379849364858</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X36" t="n">
-        <v>760.1120030753787</v>
+        <v>846.5452753557406</v>
       </c>
       <c r="Y36" t="n">
-        <v>600.7100434392087</v>
+        <v>687.1433157195706</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>619.7566616747454</v>
+        <v>614.6201804624266</v>
       </c>
       <c r="C37" t="n">
-        <v>448.6632892364618</v>
+        <v>443.5268080241431</v>
       </c>
       <c r="D37" t="n">
-        <v>448.6632892364618</v>
+        <v>284.0321633470531</v>
       </c>
       <c r="E37" t="n">
-        <v>287.7524741047813</v>
+        <v>123.1213482153726</v>
       </c>
       <c r="F37" t="n">
         <v>123.1213482153726</v>
@@ -7092,55 +7092,55 @@
         <v>123.1213482153726</v>
       </c>
       <c r="I37" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="J37" t="n">
-        <v>52.53617997680179</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K37" t="n">
-        <v>111.5999293467746</v>
+        <v>382.8814865638251</v>
       </c>
       <c r="L37" t="n">
-        <v>513.2721529075728</v>
+        <v>735.5455027727625</v>
       </c>
       <c r="M37" t="n">
-        <v>952.0181985085012</v>
+        <v>829.3251988594054</v>
       </c>
       <c r="N37" t="n">
-        <v>1067.290823607626</v>
+        <v>1256.09162282053</v>
       </c>
       <c r="O37" t="n">
-        <v>1461.639229994325</v>
+        <v>1335.365269788487</v>
       </c>
       <c r="P37" t="n">
-        <v>1782.648915084767</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q37" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R37" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S37" t="n">
-        <v>1590.794278295997</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T37" t="n">
-        <v>1355.402764068014</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U37" t="n">
-        <v>1072.657687568972</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="V37" t="n">
-        <v>1072.657687568972</v>
+        <v>1527.868692509483</v>
       </c>
       <c r="W37" t="n">
-        <v>1072.657687568972</v>
+        <v>1248.799028018358</v>
       </c>
       <c r="X37" t="n">
-        <v>834.313825428655</v>
+        <v>1027.055585467706</v>
       </c>
       <c r="Y37" t="n">
-        <v>619.7566616747454</v>
+        <v>802.3198868564709</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>530.5759943449453</v>
+        <v>521.2914877323658</v>
       </c>
       <c r="C38" t="n">
-        <v>440.4990186583387</v>
+        <v>111.1668970456359</v>
       </c>
       <c r="D38" t="n">
-        <v>36.03508875139924</v>
+        <v>111.1668970456359</v>
       </c>
       <c r="E38" t="n">
-        <v>36.03508875139924</v>
+        <v>111.1668970456359</v>
       </c>
       <c r="F38" t="n">
-        <v>36.03508875139924</v>
+        <v>111.1668970456359</v>
       </c>
       <c r="G38" t="n">
-        <v>36.03508875139924</v>
+        <v>111.1668970456359</v>
       </c>
       <c r="H38" t="n">
         <v>36.03508875139924</v>
@@ -7174,13 +7174,13 @@
         <v>36.03508875139924</v>
       </c>
       <c r="J38" t="n">
-        <v>143.8778192802976</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K38" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887693</v>
       </c>
       <c r="L38" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M38" t="n">
         <v>847.9396778919402</v>
@@ -7189,10 +7189,10 @@
         <v>1135.28612147837</v>
       </c>
       <c r="O38" t="n">
-        <v>1401.21843916599</v>
+        <v>1401.218439165989</v>
       </c>
       <c r="P38" t="n">
-        <v>1614.212614402881</v>
+        <v>1614.21261440288</v>
       </c>
       <c r="Q38" t="n">
         <v>1754.652407274058</v>
@@ -7219,7 +7219,7 @@
         <v>931.5126673968552</v>
       </c>
       <c r="Y38" t="n">
-        <v>530.5759943449453</v>
+        <v>931.5126673968552</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>619.808970439792</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C39" t="n">
-        <v>485.8138991887377</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D39" t="n">
-        <v>368.9167414081301</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E39" t="n">
-        <v>248.4239254004581</v>
+        <v>144.9949685688946</v>
       </c>
       <c r="F39" t="n">
-        <v>201.403377239373</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G39" t="n">
-        <v>95.57381618866215</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H39" t="n">
         <v>36.03508875139924</v>
@@ -7253,52 +7253,52 @@
         <v>54.86182750109192</v>
       </c>
       <c r="J39" t="n">
-        <v>111.4709909898561</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K39" t="n">
-        <v>239.8777719806491</v>
+        <v>483.5461759552823</v>
       </c>
       <c r="L39" t="n">
-        <v>431.2971645716119</v>
+        <v>674.9655685462451</v>
       </c>
       <c r="M39" t="n">
-        <v>662.5140986655719</v>
+        <v>906.182502640205</v>
       </c>
       <c r="N39" t="n">
-        <v>1108.448321964137</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O39" t="n">
-        <v>1321.904231854075</v>
+        <v>1362.810472052987</v>
       </c>
       <c r="P39" t="n">
-        <v>1700.472892794593</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q39" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R39" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.3211652896</v>
+        <v>1771.294168094206</v>
       </c>
       <c r="T39" t="n">
-        <v>1560.657138987658</v>
+        <v>1616.630141792265</v>
       </c>
       <c r="U39" t="n">
-        <v>1363.382680207123</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V39" t="n">
-        <v>1149.671153200157</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W39" t="n">
-        <v>936.4379849364858</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X39" t="n">
-        <v>760.1120030753787</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y39" t="n">
-        <v>760.1120030753787</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>838.4885448819859</v>
+        <v>871.1824418376564</v>
       </c>
       <c r="C40" t="n">
-        <v>667.3951724437024</v>
+        <v>700.0890693993729</v>
       </c>
       <c r="D40" t="n">
-        <v>507.9005277666125</v>
+        <v>589.6201787930961</v>
       </c>
       <c r="E40" t="n">
-        <v>507.9005277666125</v>
+        <v>428.7093636614156</v>
       </c>
       <c r="F40" t="n">
-        <v>343.2694018772038</v>
+        <v>264.0782377720069</v>
       </c>
       <c r="G40" t="n">
-        <v>176.9919783080335</v>
+        <v>264.0782377720069</v>
       </c>
       <c r="H40" t="n">
-        <v>36.03508875139924</v>
+        <v>123.1213482153726</v>
       </c>
       <c r="I40" t="n">
         <v>36.03508875139924</v>
@@ -7335,19 +7335,19 @@
         <v>52.53617997680179</v>
       </c>
       <c r="K40" t="n">
-        <v>317.8801229324887</v>
+        <v>111.5999293467746</v>
       </c>
       <c r="L40" t="n">
-        <v>719.5523464932869</v>
+        <v>201.7783540455737</v>
       </c>
       <c r="M40" t="n">
-        <v>1158.298392094215</v>
+        <v>640.5243996465022</v>
       </c>
       <c r="N40" t="n">
-        <v>1328.188307080744</v>
+        <v>1067.290823607626</v>
       </c>
       <c r="O40" t="n">
-        <v>1722.536713467443</v>
+        <v>1461.639229994325</v>
       </c>
       <c r="P40" t="n">
         <v>1782.648915084767</v>
@@ -7356,28 +7356,28 @@
         <v>1801.754437569962</v>
       </c>
       <c r="R40" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S40" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T40" t="n">
-        <v>1760.229876346689</v>
+        <v>1566.362923341978</v>
       </c>
       <c r="U40" t="n">
-        <v>1477.484799847647</v>
+        <v>1283.617846842936</v>
       </c>
       <c r="V40" t="n">
-        <v>1342.293907984347</v>
+        <v>1283.617846842936</v>
       </c>
       <c r="W40" t="n">
-        <v>1063.224243493221</v>
+        <v>1283.617846842936</v>
       </c>
       <c r="X40" t="n">
-        <v>1063.224243493221</v>
+        <v>1283.617846842936</v>
       </c>
       <c r="Y40" t="n">
-        <v>838.4885448819859</v>
+        <v>1058.882148231701</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>547.7523665320234</v>
+        <v>1685.994236874484</v>
       </c>
       <c r="C41" t="n">
-        <v>137.6277758452935</v>
+        <v>1275.869646187754</v>
       </c>
       <c r="D41" t="n">
-        <v>137.6277758452935</v>
+        <v>871.405716280815</v>
       </c>
       <c r="E41" t="n">
-        <v>137.6277758452935</v>
+        <v>457.0655007977117</v>
       </c>
       <c r="F41" t="n">
-        <v>137.6277758452935</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="G41" t="n">
-        <v>38.76400576596472</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="H41" t="n">
-        <v>38.76400576596472</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="I41" t="n">
         <v>36.03508875139923</v>
@@ -7417,10 +7417,10 @@
         <v>326.0552168887696</v>
       </c>
       <c r="L41" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M41" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N41" t="n">
         <v>1135.28612147837</v>
@@ -7438,25 +7438,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S41" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T41" t="n">
-        <v>1589.043031836339</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="U41" t="n">
-        <v>1332.156065227902</v>
+        <v>1685.994236874484</v>
       </c>
       <c r="V41" t="n">
-        <v>1332.156065227902</v>
+        <v>1685.994236874484</v>
       </c>
       <c r="W41" t="n">
-        <v>948.3957643630708</v>
+        <v>1685.994236874484</v>
       </c>
       <c r="X41" t="n">
-        <v>547.7523665320234</v>
+        <v>1685.994236874484</v>
       </c>
       <c r="Y41" t="n">
-        <v>547.7523665320234</v>
+        <v>1685.994236874484</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>460.4070108036216</v>
+        <v>546.840283083984</v>
       </c>
       <c r="C42" t="n">
-        <v>460.4070108036216</v>
+        <v>412.8452118329297</v>
       </c>
       <c r="D42" t="n">
-        <v>343.509853023014</v>
+        <v>295.9480540523221</v>
       </c>
       <c r="E42" t="n">
-        <v>310.3632570568684</v>
+        <v>175.4552380446501</v>
       </c>
       <c r="F42" t="n">
-        <v>201.403377239373</v>
+        <v>141.8646498021101</v>
       </c>
       <c r="G42" t="n">
-        <v>95.57381618866214</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="H42" t="n">
         <v>36.03508875139923</v>
       </c>
       <c r="I42" t="n">
-        <v>36.03508875139923</v>
+        <v>54.86182750109191</v>
       </c>
       <c r="J42" t="n">
-        <v>92.64425224016347</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K42" t="n">
-        <v>538.578475538729</v>
+        <v>483.5461759552823</v>
       </c>
       <c r="L42" t="n">
-        <v>729.9978681296918</v>
+        <v>674.9655685462451</v>
       </c>
       <c r="M42" t="n">
-        <v>961.2148022236518</v>
+        <v>906.182502640205</v>
       </c>
       <c r="N42" t="n">
-        <v>1204.386861746496</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O42" t="n">
-        <v>1417.842771636434</v>
+        <v>1362.810472052987</v>
       </c>
       <c r="P42" t="n">
-        <v>1581.330066100017</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q42" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R42" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S42" t="n">
-        <v>1715.321165289599</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T42" t="n">
-        <v>1560.657138987657</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U42" t="n">
-        <v>1363.382680207123</v>
+        <v>1449.815952487485</v>
       </c>
       <c r="V42" t="n">
-        <v>1149.671153200157</v>
+        <v>1236.104425480519</v>
       </c>
       <c r="W42" t="n">
-        <v>936.4379849364853</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X42" t="n">
-        <v>760.1120030753782</v>
+        <v>846.5452753557406</v>
       </c>
       <c r="Y42" t="n">
-        <v>600.7100434392082</v>
+        <v>687.1433157195706</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>920.2081959084696</v>
+        <v>79.8831701457357</v>
       </c>
       <c r="C43" t="n">
-        <v>749.1148234701861</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="D43" t="n">
-        <v>589.6201787930961</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="E43" t="n">
-        <v>428.7093636614156</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="F43" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="G43" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="H43" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="I43" t="n">
         <v>36.03508875139923</v>
@@ -7572,19 +7572,19 @@
         <v>117.5375436081382</v>
       </c>
       <c r="K43" t="n">
-        <v>176.601292978111</v>
+        <v>302.8860409327019</v>
       </c>
       <c r="L43" t="n">
-        <v>336.4018773128544</v>
+        <v>390.579153258477</v>
       </c>
       <c r="M43" t="n">
-        <v>775.1479229137828</v>
+        <v>829.3251988594054</v>
       </c>
       <c r="N43" t="n">
-        <v>1201.914346874907</v>
+        <v>1256.09162282053</v>
       </c>
       <c r="O43" t="n">
-        <v>1596.262753261605</v>
+        <v>1335.365269788487</v>
       </c>
       <c r="P43" t="n">
         <v>1656.37495487893</v>
@@ -7593,28 +7593,28 @@
         <v>1801.754437569962</v>
       </c>
       <c r="R43" t="n">
-        <v>1760.229876346688</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S43" t="n">
-        <v>1760.229876346688</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T43" t="n">
-        <v>1524.838362118704</v>
+        <v>1566.362923341978</v>
       </c>
       <c r="U43" t="n">
-        <v>1242.093285619662</v>
+        <v>1283.617846842936</v>
       </c>
       <c r="V43" t="n">
-        <v>968.2075405591843</v>
+        <v>1009.732101782458</v>
       </c>
       <c r="W43" t="n">
-        <v>920.2081959084696</v>
+        <v>730.662437291332</v>
       </c>
       <c r="X43" t="n">
-        <v>920.2081959084696</v>
+        <v>492.3185751510154</v>
       </c>
       <c r="Y43" t="n">
-        <v>920.2081959084696</v>
+        <v>267.5828765397801</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1153.35195130011</v>
+        <v>982.3185105643829</v>
       </c>
       <c r="C44" t="n">
-        <v>743.2273606133803</v>
+        <v>861.5294307046512</v>
       </c>
       <c r="D44" t="n">
-        <v>743.2273606133803</v>
+        <v>457.0655007977117</v>
       </c>
       <c r="E44" t="n">
-        <v>328.887145130277</v>
+        <v>457.0655007977117</v>
       </c>
       <c r="F44" t="n">
-        <v>328.887145130277</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="G44" t="n">
-        <v>38.76400576596472</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="H44" t="n">
-        <v>38.76400576596472</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="I44" t="n">
         <v>36.03508875139923</v>
@@ -7654,10 +7654,10 @@
         <v>326.0552168887696</v>
       </c>
       <c r="L44" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019884</v>
       </c>
       <c r="M44" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N44" t="n">
         <v>1135.28612147837</v>
@@ -7675,25 +7675,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S44" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T44" t="n">
-        <v>1503.189505963629</v>
+        <v>1589.043031836339</v>
       </c>
       <c r="U44" t="n">
-        <v>1503.189505963629</v>
+        <v>1332.156065227902</v>
       </c>
       <c r="V44" t="n">
-        <v>1153.35195130011</v>
+        <v>982.3185105643829</v>
       </c>
       <c r="W44" t="n">
-        <v>1153.35195130011</v>
+        <v>982.3185105643829</v>
       </c>
       <c r="X44" t="n">
-        <v>1153.35195130011</v>
+        <v>982.3185105643829</v>
       </c>
       <c r="Y44" t="n">
-        <v>1153.35195130011</v>
+        <v>982.3185105643829</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>615.0710371055633</v>
+        <v>622.2095746589395</v>
       </c>
       <c r="C45" t="n">
-        <v>481.075965854509</v>
+        <v>488.2145034078852</v>
       </c>
       <c r="D45" t="n">
-        <v>364.1788080739014</v>
+        <v>371.3173456272776</v>
       </c>
       <c r="E45" t="n">
-        <v>310.3632570568684</v>
+        <v>250.8245296196056</v>
       </c>
       <c r="F45" t="n">
-        <v>201.403377239373</v>
+        <v>141.8646498021101</v>
       </c>
       <c r="G45" t="n">
-        <v>95.57381618866214</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="H45" t="n">
         <v>36.03508875139923</v>
       </c>
       <c r="I45" t="n">
-        <v>36.03508875139923</v>
+        <v>54.86182750109191</v>
       </c>
       <c r="J45" t="n">
-        <v>92.64425224016347</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0510332309564</v>
+        <v>483.5461759552823</v>
       </c>
       <c r="L45" t="n">
-        <v>412.4704258219192</v>
+        <v>674.9655685462451</v>
       </c>
       <c r="M45" t="n">
-        <v>643.6873599158791</v>
+        <v>906.182502640205</v>
       </c>
       <c r="N45" t="n">
-        <v>886.8594194387238</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O45" t="n">
-        <v>1332.793642737289</v>
+        <v>1362.810472052987</v>
       </c>
       <c r="P45" t="n">
-        <v>1496.280937200872</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q45" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R45" t="n">
         <v>1801.754437569962</v>
@@ -7757,22 +7757,22 @@
         <v>1715.321165289599</v>
       </c>
       <c r="T45" t="n">
-        <v>1715.321165289599</v>
+        <v>1560.657138987657</v>
       </c>
       <c r="U45" t="n">
-        <v>1518.046706509065</v>
+        <v>1363.382680207123</v>
       </c>
       <c r="V45" t="n">
-        <v>1304.335179502098</v>
+        <v>1149.671153200157</v>
       </c>
       <c r="W45" t="n">
-        <v>1091.102011238427</v>
+        <v>1098.240548791803</v>
       </c>
       <c r="X45" t="n">
-        <v>914.7760293773199</v>
+        <v>921.9145669306961</v>
       </c>
       <c r="Y45" t="n">
-        <v>755.3740697411499</v>
+        <v>762.5126072945261</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>424.9890529036874</v>
+        <v>360.1608593178979</v>
       </c>
       <c r="C46" t="n">
-        <v>424.9890529036874</v>
+        <v>360.1608593178979</v>
       </c>
       <c r="D46" t="n">
-        <v>424.9890529036874</v>
+        <v>200.666214640808</v>
       </c>
       <c r="E46" t="n">
-        <v>264.0782377720069</v>
+        <v>200.666214640808</v>
       </c>
       <c r="F46" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="G46" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="H46" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139923</v>
       </c>
       <c r="I46" t="n">
         <v>36.03508875139923</v>
       </c>
       <c r="J46" t="n">
-        <v>117.5375436081382</v>
+        <v>52.53617997680178</v>
       </c>
       <c r="K46" t="n">
-        <v>176.601292978111</v>
+        <v>111.5999293467746</v>
       </c>
       <c r="L46" t="n">
         <v>336.4018773128544</v>
@@ -7833,25 +7833,25 @@
         <v>1760.229876346688</v>
       </c>
       <c r="S46" t="n">
-        <v>1590.794278295997</v>
+        <v>1760.229876346688</v>
       </c>
       <c r="T46" t="n">
-        <v>1355.402764068013</v>
+        <v>1524.838362118704</v>
       </c>
       <c r="U46" t="n">
-        <v>1072.657687568971</v>
+        <v>1242.093285619662</v>
       </c>
       <c r="V46" t="n">
-        <v>1072.657687568971</v>
+        <v>1242.093285619662</v>
       </c>
       <c r="W46" t="n">
-        <v>888.0686136552392</v>
+        <v>963.0236211285367</v>
       </c>
       <c r="X46" t="n">
-        <v>649.7247515149227</v>
+        <v>724.6797589882201</v>
       </c>
       <c r="Y46" t="n">
-        <v>424.9890529036874</v>
+        <v>547.8605657119423</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>320.7347902098713</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>12.47108229081061</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8856,13 +8856,13 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>95.17706553820383</v>
       </c>
       <c r="N13" t="n">
-        <v>64.98354018916827</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
         <v>263.5328115890082</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7485506060653719</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>87.07617151620377</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>234.8265792006342</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>117.3962011280202</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>210.3491450654267</v>
+        <v>182.7293311535302</v>
       </c>
       <c r="M16" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O16" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>127.5494547533709</v>
@@ -9242,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3677548205355095</v>
+        <v>87.07617151620411</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>216.8861507117228</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>204.8102664401221</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,22 +9327,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>317.1506174091142</v>
+        <v>72.83583031208968</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>303.5408974429653</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7485506060653719</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>257.085687583437</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>183.9953922169152</v>
+        <v>87.07617151620394</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9570,16 +9570,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>200.9668970248053</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>64.98354018916818</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7485506060653719</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>147.4125138885324</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>204.8102664401221</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>87.07617151620443</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9801,13 +9801,13 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.985313160665442</v>
       </c>
       <c r="M25" t="n">
-        <v>15.04798797551372</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>318.2573327462026</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7485506060653719</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>285.2999281161444</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>66.92285221251032</v>
+        <v>87.07617151620443</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.092028497753486</v>
       </c>
       <c r="K28" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
-        <v>15.04798797551372</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>263.5328115890082</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>360.4692637053962</v>
+        <v>87.0761715162042</v>
       </c>
       <c r="R30" t="n">
-        <v>61.59490826698362</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>266.0432281274161</v>
       </c>
       <c r="M31" t="n">
         <v>348.4508580952379</v>
@@ -10284,10 +10284,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>255.1098062226545</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0.7485506060653719</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>234.8265792006341</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>206.2545005997181</v>
+        <v>194.9513788158746</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10512,22 +10512,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>317.1506174091142</v>
+        <v>266.0432281274161</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
-        <v>211.4558604025149</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7485506060653719</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>236.2708133602305</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>204.8102664401221</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>87.07617151620371</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>267.64737765976</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>20.74798240968335</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>204.8102664401221</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>217.2539055322582</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>87.0761715162042</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>2.510416538408123</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
-        <v>75.9169620939296</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7485506060653719</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>320.7347902098712</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>120.3462895904809</v>
+        <v>87.07617151620371</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>127.5603514692837</v>
       </c>
       <c r="L43" t="n">
-        <v>72.83583031208926</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11232,10 +11232,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7485506060653719</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>234.8265792006341</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>206.2545005997181</v>
+        <v>87.07617151620371</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>72.83583031208926</v>
+        <v>138.4937733740452</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
@@ -23263,22 +23263,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>159.965450350132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I11" t="n">
-        <v>2.701627844419832</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.99499061398264</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>254.3180969423526</v>
       </c>
       <c r="V11" t="n">
-        <v>324.1794879217873</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>104.7712654402038</v>
+        <v>17.83075261929382</v>
       </c>
       <c r="H12" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>55.41327277656059</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>23.90964971386828</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>139.5473206610679</v>
       </c>
       <c r="I13" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.172981210250327</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>293.5196975230468</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23512,10 +23512,10 @@
         <v>402.4936277569416</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>76.82527812219416</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61.31993833984632</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>17.83075261929426</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>152.6135895654577</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.65525604028619</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>97.32187087388121</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>199.8099531260953</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>402.4936277569416</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I17" t="n">
-        <v>2.701627844419846</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.99499061398265</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>8.027041798620367</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>133.5589388220957</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>125.0635701449611</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -23907,7 +23907,7 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H19" t="n">
-        <v>139.547320661068</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>86.2153968693336</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.4409571008318</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>282.675128815122</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>402.4936277569416</v>
@@ -23989,7 +23989,7 @@
         <v>285.807623447931</v>
       </c>
       <c r="I20" t="n">
-        <v>2.701627844419832</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.3180969423526</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>140.3925698649284</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52.31425719744431</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>58.94334016289027</v>
+        <v>23.82616418692532</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3017141927292</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.6146493334786</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>103.0453769948141</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.4409571008318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.701627844419832</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T23" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>171.0023993802873</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7445944742216</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24296,10 +24296,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H24" t="n">
         <v>58.94334016289027</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>55.41327277656035</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>52.31425719744392</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.5473206610679</v>
+        <v>81.33635013539515</v>
       </c>
       <c r="I25" t="n">
         <v>86.2153968693336</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.10931561104034</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>106.2732300346046</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I26" t="n">
         <v>2.701627844419832</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>136.1857812309088</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24511,7 +24511,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.5092294652599</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>114.3566129394507</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>104.7712654402038</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>55.41327277656035</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>86.99683376883797</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>127.3202400125347</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -24688,19 +24688,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T29" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>186.8280029754153</v>
+        <v>244.7385483827247</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24770,13 +24770,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>44.5651563371589</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>55.41327277656058</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.6146493334786</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I31" t="n">
         <v>86.2153968693336</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>41.10931561104034</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>49.96246439443857</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V31" t="n">
-        <v>238.4102929568869</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.4936277569416</v>
@@ -24937,7 +24937,7 @@
         <v>285.807623447931</v>
       </c>
       <c r="I32" t="n">
-        <v>2.701627844419832</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V32" t="n">
-        <v>272.2490313742443</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>35.50717088272535</v>
       </c>
     </row>
     <row r="33">
@@ -25004,16 +25004,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>111.2575973603345</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>55.41327277656058</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.86297229581902</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>86.2153968693336</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>167.1786096960948</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>404.0120897011586</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -25162,16 +25162,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>36.08817587598713</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I35" t="n">
         <v>2.701627844419832</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25241,16 +25241,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>111.2575973603341</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>28.78767338189239</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.6146493334786</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.10931561104034</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>16.43441539376849</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.07674950875239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>316.847138850122</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25408,7 +25408,7 @@
         <v>402.4936277569416</v>
       </c>
       <c r="H38" t="n">
-        <v>285.807623447931</v>
+        <v>211.4271332366367</v>
       </c>
       <c r="I38" t="n">
         <v>2.701627844419832</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25481,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>61.31993833984625</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>55.41327277656058</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>48.53549653010508</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.10931561104034</v>
       </c>
       <c r="S40" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T40" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>137.3079046652066</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>304.6184953784061</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H41" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.99499061398264</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>224.7104888678127</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25709,22 +25709,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>86.47275784111116</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>74.61559865920592</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>125.9728381335075</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>164.6146493334786</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>41.10931561104034</v>
       </c>
       <c r="S43" t="n">
         <v>167.7412420701844</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>228.7596166420068</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>286.4421557187281</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>115.2717197862725</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H44" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>66.01049234073264</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>153.1173860389223</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>160.1845382167648</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.6146493334786</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>93.53578467161978</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>47.4373402816079</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>420253.0600232118</v>
+        <v>420253.0600232119</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>420253.0600232118</v>
+        <v>420253.0600232119</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>420253.0600232117</v>
+        <v>420253.0600232118</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>420253.0600232117</v>
+        <v>420253.0600232119</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>420253.0600232116</v>
+        <v>420253.0600232118</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>420253.0600232119</v>
+        <v>420253.0600232118</v>
       </c>
     </row>
     <row r="14">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>437406.5460677004</v>
+      </c>
+      <c r="C2" t="n">
         <v>437406.5460677003</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>437406.5460677004</v>
       </c>
-      <c r="D2" t="n">
-        <v>437406.5460677003</v>
-      </c>
       <c r="E2" t="n">
-        <v>249986.7479118761</v>
+        <v>249986.7479118762</v>
       </c>
       <c r="F2" t="n">
         <v>249986.747911876</v>
       </c>
       <c r="G2" t="n">
-        <v>249986.747911876</v>
+        <v>249986.7479118761</v>
       </c>
       <c r="H2" t="n">
-        <v>249986.747911876</v>
+        <v>249986.7479118761</v>
       </c>
       <c r="I2" t="n">
         <v>249986.7479118761</v>
@@ -26343,7 +26343,7 @@
         <v>249986.7479118761</v>
       </c>
       <c r="L2" t="n">
-        <v>249986.7479118761</v>
+        <v>249986.747911876</v>
       </c>
       <c r="M2" t="n">
         <v>249986.747911876</v>
@@ -26352,10 +26352,10 @@
         <v>249986.7479118761</v>
       </c>
       <c r="O2" t="n">
-        <v>249986.7479118762</v>
+        <v>249986.747911876</v>
       </c>
       <c r="P2" t="n">
-        <v>249986.7479118761</v>
+        <v>249986.747911876</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>563636.1310597793</v>
+        <v>563636.1310597794</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>358147.6449191825</v>
       </c>
       <c r="E4" t="n">
-        <v>22516.61557506375</v>
+        <v>22516.61557506376</v>
       </c>
       <c r="F4" t="n">
         <v>22516.61557506375</v>
@@ -26435,28 +26435,28 @@
         <v>22516.61557506376</v>
       </c>
       <c r="H4" t="n">
-        <v>22516.61557506374</v>
+        <v>22516.61557506375</v>
       </c>
       <c r="I4" t="n">
-        <v>22516.61557506376</v>
+        <v>22516.61557506377</v>
       </c>
       <c r="J4" t="n">
         <v>22516.61557506376</v>
       </c>
       <c r="K4" t="n">
+        <v>22516.61557506376</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22516.61557506375</v>
+      </c>
+      <c r="M4" t="n">
         <v>22516.61557506374</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22516.61557506374</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22516.61557506375</v>
       </c>
       <c r="N4" t="n">
         <v>22516.61557506376</v>
       </c>
       <c r="O4" t="n">
-        <v>22516.61557506374</v>
+        <v>22516.61557506375</v>
       </c>
       <c r="P4" t="n">
         <v>22516.61557506374</v>
@@ -26484,10 +26484,10 @@
         <v>39031.33714783083</v>
       </c>
       <c r="G5" t="n">
-        <v>39031.33714783082</v>
+        <v>39031.33714783083</v>
       </c>
       <c r="H5" t="n">
-        <v>39031.33714783082</v>
+        <v>39031.33714783083</v>
       </c>
       <c r="I5" t="n">
         <v>39031.33714783083</v>
@@ -26496,13 +26496,13 @@
         <v>39031.33714783083</v>
       </c>
       <c r="K5" t="n">
+        <v>39031.33714783083</v>
+      </c>
+      <c r="L5" t="n">
+        <v>39031.33714783083</v>
+      </c>
+      <c r="M5" t="n">
         <v>39031.33714783082</v>
-      </c>
-      <c r="L5" t="n">
-        <v>39031.33714783082</v>
-      </c>
-      <c r="M5" t="n">
-        <v>39031.33714783083</v>
       </c>
       <c r="N5" t="n">
         <v>39031.33714783083</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45631.30114851781</v>
+        <v>45622.50146288847</v>
       </c>
       <c r="C6" t="n">
-        <v>45631.30114851787</v>
+        <v>45622.50146288835</v>
       </c>
       <c r="D6" t="n">
-        <v>45631.30114851781</v>
+        <v>45622.50146288847</v>
       </c>
       <c r="E6" t="n">
-        <v>-375197.3358707978</v>
+        <v>-375900.2829570043</v>
       </c>
       <c r="F6" t="n">
-        <v>188438.7951889815</v>
+        <v>187735.8481027749</v>
       </c>
       <c r="G6" t="n">
-        <v>188438.7951889815</v>
+        <v>187735.848102775</v>
       </c>
       <c r="H6" t="n">
-        <v>188438.7951889815</v>
+        <v>187735.848102775</v>
       </c>
       <c r="I6" t="n">
-        <v>188438.7951889815</v>
+        <v>187735.848102775</v>
       </c>
       <c r="J6" t="n">
-        <v>188438.7951889815</v>
+        <v>187735.8481027749</v>
       </c>
       <c r="K6" t="n">
-        <v>188438.7951889815</v>
+        <v>187735.848102775</v>
       </c>
       <c r="L6" t="n">
-        <v>188438.7951889815</v>
+        <v>187735.8481027749</v>
       </c>
       <c r="M6" t="n">
-        <v>76187.69197393527</v>
+        <v>75484.74488772875</v>
       </c>
       <c r="N6" t="n">
-        <v>188438.7951889815</v>
+        <v>187735.848102775</v>
       </c>
       <c r="O6" t="n">
-        <v>188438.7951889816</v>
+        <v>187735.8481027749</v>
       </c>
       <c r="P6" t="n">
-        <v>188438.7951889815</v>
+        <v>187735.8481027749</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>534.1591604021746</v>
+      </c>
+      <c r="F3" t="n">
+        <v>534.1591604021746</v>
+      </c>
+      <c r="G3" t="n">
         <v>534.1591604021745</v>
       </c>
-      <c r="F3" t="n">
-        <v>534.1591604021745</v>
-      </c>
-      <c r="G3" t="n">
-        <v>534.1591604021744</v>
-      </c>
       <c r="H3" t="n">
-        <v>534.1591604021745</v>
+        <v>534.1591604021746</v>
       </c>
       <c r="I3" t="n">
         <v>534.1591604021745</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>450.4386093924906</v>
+      </c>
+      <c r="F4" t="n">
         <v>450.4386093924905</v>
       </c>
-      <c r="F4" t="n">
-        <v>450.4386093924904</v>
-      </c>
       <c r="G4" t="n">
-        <v>450.4386093924904</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="H4" t="n">
-        <v>450.4386093924904</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="I4" t="n">
         <v>450.4386093924905</v>
@@ -26816,13 +26816,13 @@
         <v>450.4386093924905</v>
       </c>
       <c r="K4" t="n">
+        <v>450.4386093924905</v>
+      </c>
+      <c r="L4" t="n">
+        <v>450.4386093924905</v>
+      </c>
+      <c r="M4" t="n">
         <v>450.4386093924904</v>
-      </c>
-      <c r="L4" t="n">
-        <v>450.4386093924904</v>
-      </c>
-      <c r="M4" t="n">
-        <v>450.4386093924905</v>
       </c>
       <c r="N4" t="n">
         <v>450.4386093924905</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>534.1591604021745</v>
+        <v>534.1591604021746</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>450.4386093924905</v>
+        <v>450.4386093924907</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4386093924905</v>
+        <v>450.4386093924906</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4386093924905</v>
+        <v>450.4386093924907</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>21.99178895062821</v>
       </c>
       <c r="I11" t="n">
-        <v>82.78661721167774</v>
+        <v>82.78661721167775</v>
       </c>
       <c r="J11" t="n">
         <v>182.2556423725993</v>
@@ -31767,31 +31767,31 @@
         <v>273.153963015108</v>
       </c>
       <c r="L11" t="n">
-        <v>338.8716450458941</v>
+        <v>338.8716450458942</v>
       </c>
       <c r="M11" t="n">
-        <v>377.0599986893199</v>
+        <v>377.05999868932</v>
       </c>
       <c r="N11" t="n">
-        <v>383.161223672205</v>
+        <v>383.1612236722052</v>
       </c>
       <c r="O11" t="n">
-        <v>361.8082783405503</v>
+        <v>361.8082783405504</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7949948332993</v>
+        <v>308.7949948332994</v>
       </c>
       <c r="Q11" t="n">
         <v>231.8921810367048</v>
       </c>
       <c r="R11" t="n">
-        <v>134.8899511944245</v>
+        <v>134.8899511944246</v>
       </c>
       <c r="S11" t="n">
         <v>48.93327383985751</v>
       </c>
       <c r="T11" t="n">
-        <v>9.400127536323692</v>
+        <v>9.400127536323694</v>
       </c>
       <c r="U11" t="n">
         <v>0.1717898807323575</v>
@@ -31837,13 +31837,13 @@
         <v>11.09640067175084</v>
       </c>
       <c r="I12" t="n">
-        <v>39.55801329393463</v>
+        <v>39.55801329393464</v>
       </c>
       <c r="J12" t="n">
         <v>108.550212020974</v>
       </c>
       <c r="K12" t="n">
-        <v>185.5296019672345</v>
+        <v>185.5296019672346</v>
       </c>
       <c r="L12" t="n">
         <v>249.4674456199024</v>
@@ -31855,25 +31855,25 @@
         <v>298.8217363461184</v>
       </c>
       <c r="O12" t="n">
-        <v>273.3635091918562</v>
+        <v>273.3635091918563</v>
       </c>
       <c r="P12" t="n">
         <v>219.3983162791498</v>
       </c>
       <c r="Q12" t="n">
-        <v>146.6619641919329</v>
+        <v>146.661964191933</v>
       </c>
       <c r="R12" t="n">
-        <v>71.33544410050175</v>
+        <v>71.33544410050176</v>
       </c>
       <c r="S12" t="n">
-        <v>21.34117022927554</v>
+        <v>21.34117022927555</v>
       </c>
       <c r="T12" t="n">
-        <v>4.631059135939606</v>
+        <v>4.631059135939607</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07558856043427001</v>
+        <v>0.07558856043427002</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9632378302334293</v>
+        <v>0.9632378302334296</v>
       </c>
       <c r="H13" t="n">
-        <v>8.564059981529951</v>
+        <v>8.564059981529953</v>
       </c>
       <c r="I13" t="n">
-        <v>28.9671885673835</v>
+        <v>28.96718856738351</v>
       </c>
       <c r="J13" t="n">
-        <v>68.10091459750345</v>
+        <v>68.10091459750346</v>
       </c>
       <c r="K13" t="n">
         <v>111.9107224580293</v>
       </c>
       <c r="L13" t="n">
-        <v>143.2071952330682</v>
+        <v>143.2071952330683</v>
       </c>
       <c r="M13" t="n">
         <v>150.9919082428638</v>
@@ -31937,22 +31937,22 @@
         <v>136.1492889497215</v>
       </c>
       <c r="P13" t="n">
-        <v>116.4992372129594</v>
+        <v>116.4992372129595</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.65803322072834</v>
+        <v>80.65803322072837</v>
       </c>
       <c r="R13" t="n">
-        <v>43.310675530314</v>
+        <v>43.31067553031401</v>
       </c>
       <c r="S13" t="n">
         <v>16.7866083687044</v>
       </c>
       <c r="T13" t="n">
-        <v>4.115652547361015</v>
+        <v>4.115652547361016</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05254024528545984</v>
+        <v>0.05254024528545986</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>21.99178895062821</v>
       </c>
       <c r="I14" t="n">
-        <v>82.78661721167774</v>
+        <v>82.78661721167775</v>
       </c>
       <c r="J14" t="n">
         <v>182.2556423725993</v>
@@ -32004,31 +32004,31 @@
         <v>273.153963015108</v>
       </c>
       <c r="L14" t="n">
-        <v>338.8716450458941</v>
+        <v>338.8716450458942</v>
       </c>
       <c r="M14" t="n">
-        <v>377.0599986893199</v>
+        <v>377.05999868932</v>
       </c>
       <c r="N14" t="n">
-        <v>383.161223672205</v>
+        <v>383.1612236722052</v>
       </c>
       <c r="O14" t="n">
-        <v>361.8082783405503</v>
+        <v>361.8082783405504</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7949948332993</v>
+        <v>308.7949948332994</v>
       </c>
       <c r="Q14" t="n">
         <v>231.8921810367048</v>
       </c>
       <c r="R14" t="n">
-        <v>134.8899511944245</v>
+        <v>134.8899511944246</v>
       </c>
       <c r="S14" t="n">
         <v>48.93327383985751</v>
       </c>
       <c r="T14" t="n">
-        <v>9.400127536323692</v>
+        <v>9.400127536323694</v>
       </c>
       <c r="U14" t="n">
         <v>0.1717898807323575</v>
@@ -32074,13 +32074,13 @@
         <v>11.09640067175084</v>
       </c>
       <c r="I15" t="n">
-        <v>39.55801329393463</v>
+        <v>39.55801329393464</v>
       </c>
       <c r="J15" t="n">
         <v>108.550212020974</v>
       </c>
       <c r="K15" t="n">
-        <v>185.5296019672345</v>
+        <v>185.5296019672346</v>
       </c>
       <c r="L15" t="n">
         <v>249.4674456199024</v>
@@ -32092,25 +32092,25 @@
         <v>298.8217363461184</v>
       </c>
       <c r="O15" t="n">
-        <v>273.3635091918562</v>
+        <v>273.3635091918563</v>
       </c>
       <c r="P15" t="n">
         <v>219.3983162791498</v>
       </c>
       <c r="Q15" t="n">
-        <v>146.6619641919329</v>
+        <v>146.661964191933</v>
       </c>
       <c r="R15" t="n">
-        <v>71.33544410050175</v>
+        <v>71.33544410050176</v>
       </c>
       <c r="S15" t="n">
-        <v>21.34117022927554</v>
+        <v>21.34117022927555</v>
       </c>
       <c r="T15" t="n">
-        <v>4.631059135939606</v>
+        <v>4.631059135939607</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07558856043427001</v>
+        <v>0.07558856043427002</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9632378302334293</v>
+        <v>0.9632378302334296</v>
       </c>
       <c r="H16" t="n">
-        <v>8.564059981529951</v>
+        <v>8.564059981529953</v>
       </c>
       <c r="I16" t="n">
-        <v>28.9671885673835</v>
+        <v>28.96718856738351</v>
       </c>
       <c r="J16" t="n">
-        <v>68.10091459750345</v>
+        <v>68.10091459750346</v>
       </c>
       <c r="K16" t="n">
         <v>111.9107224580293</v>
       </c>
       <c r="L16" t="n">
-        <v>143.2071952330682</v>
+        <v>143.2071952330683</v>
       </c>
       <c r="M16" t="n">
         <v>150.9919082428638</v>
@@ -32174,22 +32174,22 @@
         <v>136.1492889497215</v>
       </c>
       <c r="P16" t="n">
-        <v>116.4992372129594</v>
+        <v>116.4992372129595</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.65803322072834</v>
+        <v>80.65803322072837</v>
       </c>
       <c r="R16" t="n">
-        <v>43.310675530314</v>
+        <v>43.31067553031401</v>
       </c>
       <c r="S16" t="n">
         <v>16.7866083687044</v>
       </c>
       <c r="T16" t="n">
-        <v>4.115652547361015</v>
+        <v>4.115652547361016</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05254024528545984</v>
+        <v>0.05254024528545986</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,34 +32226,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.147373509154468</v>
+        <v>2.147373509154469</v>
       </c>
       <c r="H17" t="n">
         <v>21.99178895062821</v>
       </c>
       <c r="I17" t="n">
-        <v>82.78661721167772</v>
+        <v>82.78661721167774</v>
       </c>
       <c r="J17" t="n">
-        <v>182.2556423725992</v>
+        <v>182.2556423725993</v>
       </c>
       <c r="K17" t="n">
-        <v>273.1539630151079</v>
+        <v>273.153963015108</v>
       </c>
       <c r="L17" t="n">
         <v>338.8716450458941</v>
       </c>
       <c r="M17" t="n">
-        <v>377.0599986893198</v>
+        <v>377.0599986893199</v>
       </c>
       <c r="N17" t="n">
         <v>383.161223672205</v>
       </c>
       <c r="O17" t="n">
-        <v>361.8082783405502</v>
+        <v>361.8082783405503</v>
       </c>
       <c r="P17" t="n">
-        <v>308.7949948332992</v>
+        <v>308.7949948332993</v>
       </c>
       <c r="Q17" t="n">
         <v>231.8921810367048</v>
@@ -32262,13 +32262,13 @@
         <v>134.8899511944245</v>
       </c>
       <c r="S17" t="n">
-        <v>48.9332738398575</v>
+        <v>48.93327383985751</v>
       </c>
       <c r="T17" t="n">
-        <v>9.400127536323689</v>
+        <v>9.400127536323692</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1717898807323574</v>
+        <v>0.1717898807323575</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.148946118600903</v>
+        <v>1.148946118600904</v>
       </c>
       <c r="H18" t="n">
-        <v>11.09640067175083</v>
+        <v>11.09640067175084</v>
       </c>
       <c r="I18" t="n">
-        <v>39.55801329393462</v>
+        <v>39.55801329393463</v>
       </c>
       <c r="J18" t="n">
         <v>108.550212020974</v>
@@ -32320,34 +32320,34 @@
         <v>185.5296019672345</v>
       </c>
       <c r="L18" t="n">
-        <v>249.4674456199023</v>
+        <v>249.4674456199024</v>
       </c>
       <c r="M18" t="n">
-        <v>291.116742419185</v>
+        <v>291.1167424191851</v>
       </c>
       <c r="N18" t="n">
-        <v>298.8217363461183</v>
+        <v>298.8217363461184</v>
       </c>
       <c r="O18" t="n">
         <v>273.3635091918562</v>
       </c>
       <c r="P18" t="n">
-        <v>219.3983162791497</v>
+        <v>219.3983162791498</v>
       </c>
       <c r="Q18" t="n">
         <v>146.6619641919329</v>
       </c>
       <c r="R18" t="n">
-        <v>71.33544410050173</v>
+        <v>71.33544410050175</v>
       </c>
       <c r="S18" t="n">
         <v>21.34117022927554</v>
       </c>
       <c r="T18" t="n">
-        <v>4.631059135939605</v>
+        <v>4.631059135939606</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07558856043426999</v>
+        <v>0.07558856043427001</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9632378302334291</v>
+        <v>0.9632378302334293</v>
       </c>
       <c r="H19" t="n">
-        <v>8.564059981529949</v>
+        <v>8.564059981529951</v>
       </c>
       <c r="I19" t="n">
         <v>28.9671885673835</v>
       </c>
       <c r="J19" t="n">
-        <v>68.10091459750343</v>
+        <v>68.10091459750345</v>
       </c>
       <c r="K19" t="n">
         <v>111.9107224580293</v>
@@ -32414,19 +32414,19 @@
         <v>116.4992372129594</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.65803322072833</v>
+        <v>80.65803322072834</v>
       </c>
       <c r="R19" t="n">
-        <v>43.31067553031399</v>
+        <v>43.310675530314</v>
       </c>
       <c r="S19" t="n">
-        <v>16.78660836870439</v>
+        <v>16.7866083687044</v>
       </c>
       <c r="T19" t="n">
-        <v>4.115652547361014</v>
+        <v>4.115652547361015</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05254024528545983</v>
+        <v>0.05254024528545984</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>21.99178895062821</v>
       </c>
       <c r="I20" t="n">
-        <v>82.78661721167774</v>
+        <v>82.78661721167775</v>
       </c>
       <c r="J20" t="n">
         <v>182.2556423725993</v>
@@ -32478,31 +32478,31 @@
         <v>273.153963015108</v>
       </c>
       <c r="L20" t="n">
-        <v>338.8716450458941</v>
+        <v>338.8716450458942</v>
       </c>
       <c r="M20" t="n">
-        <v>377.0599986893199</v>
+        <v>377.05999868932</v>
       </c>
       <c r="N20" t="n">
-        <v>383.161223672205</v>
+        <v>383.1612236722052</v>
       </c>
       <c r="O20" t="n">
-        <v>361.8082783405503</v>
+        <v>361.8082783405504</v>
       </c>
       <c r="P20" t="n">
-        <v>308.7949948332993</v>
+        <v>308.7949948332994</v>
       </c>
       <c r="Q20" t="n">
         <v>231.8921810367048</v>
       </c>
       <c r="R20" t="n">
-        <v>134.8899511944245</v>
+        <v>134.8899511944246</v>
       </c>
       <c r="S20" t="n">
         <v>48.93327383985751</v>
       </c>
       <c r="T20" t="n">
-        <v>9.400127536323692</v>
+        <v>9.400127536323694</v>
       </c>
       <c r="U20" t="n">
         <v>0.1717898807323575</v>
@@ -32548,13 +32548,13 @@
         <v>11.09640067175084</v>
       </c>
       <c r="I21" t="n">
-        <v>39.55801329393463</v>
+        <v>39.55801329393464</v>
       </c>
       <c r="J21" t="n">
         <v>108.550212020974</v>
       </c>
       <c r="K21" t="n">
-        <v>185.5296019672345</v>
+        <v>185.5296019672346</v>
       </c>
       <c r="L21" t="n">
         <v>249.4674456199024</v>
@@ -32566,25 +32566,25 @@
         <v>298.8217363461184</v>
       </c>
       <c r="O21" t="n">
-        <v>273.3635091918562</v>
+        <v>273.3635091918563</v>
       </c>
       <c r="P21" t="n">
         <v>219.3983162791498</v>
       </c>
       <c r="Q21" t="n">
-        <v>146.6619641919329</v>
+        <v>146.661964191933</v>
       </c>
       <c r="R21" t="n">
-        <v>71.33544410050175</v>
+        <v>71.33544410050176</v>
       </c>
       <c r="S21" t="n">
-        <v>21.34117022927554</v>
+        <v>21.34117022927555</v>
       </c>
       <c r="T21" t="n">
-        <v>4.631059135939606</v>
+        <v>4.631059135939607</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07558856043427001</v>
+        <v>0.07558856043427002</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9632378302334293</v>
+        <v>0.9632378302334296</v>
       </c>
       <c r="H22" t="n">
-        <v>8.564059981529951</v>
+        <v>8.564059981529953</v>
       </c>
       <c r="I22" t="n">
-        <v>28.9671885673835</v>
+        <v>28.96718856738351</v>
       </c>
       <c r="J22" t="n">
-        <v>68.10091459750345</v>
+        <v>68.10091459750346</v>
       </c>
       <c r="K22" t="n">
         <v>111.9107224580293</v>
       </c>
       <c r="L22" t="n">
-        <v>143.2071952330682</v>
+        <v>143.2071952330683</v>
       </c>
       <c r="M22" t="n">
         <v>150.9919082428638</v>
@@ -32648,22 +32648,22 @@
         <v>136.1492889497215</v>
       </c>
       <c r="P22" t="n">
-        <v>116.4992372129594</v>
+        <v>116.4992372129595</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.65803322072834</v>
+        <v>80.65803322072837</v>
       </c>
       <c r="R22" t="n">
-        <v>43.310675530314</v>
+        <v>43.31067553031401</v>
       </c>
       <c r="S22" t="n">
         <v>16.7866083687044</v>
       </c>
       <c r="T22" t="n">
-        <v>4.115652547361015</v>
+        <v>4.115652547361016</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05254024528545984</v>
+        <v>0.05254024528545986</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34146,7 +34146,7 @@
         <v>383.161223672205</v>
       </c>
       <c r="O41" t="n">
-        <v>361.8082783405502</v>
+        <v>361.8082783405503</v>
       </c>
       <c r="P41" t="n">
         <v>308.7949948332993</v>
@@ -34386,7 +34386,7 @@
         <v>361.8082783405503</v>
       </c>
       <c r="P44" t="n">
-        <v>308.7949948332993</v>
+        <v>308.7949948332992</v>
       </c>
       <c r="Q44" t="n">
         <v>231.8921810367048</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>108.9320510392913</v>
+        <v>108.9320510392914</v>
       </c>
       <c r="K11" t="n">
         <v>184.0175733418909</v>
       </c>
       <c r="L11" t="n">
-        <v>243.3862469830493</v>
+        <v>243.3862469830494</v>
       </c>
       <c r="M11" t="n">
         <v>283.7697742322745</v>
       </c>
       <c r="N11" t="n">
-        <v>290.2489329155857</v>
+        <v>290.2489329155858</v>
       </c>
       <c r="O11" t="n">
-        <v>268.6185027147671</v>
+        <v>268.6185027147673</v>
       </c>
       <c r="P11" t="n">
         <v>215.1456315524152</v>
@@ -35433,7 +35433,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R11" t="n">
-        <v>47.57780837970101</v>
+        <v>47.57780837970104</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.0169078279724</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J12" t="n">
-        <v>57.18097322097397</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K12" t="n">
-        <v>450.4386093924905</v>
+        <v>129.7038191826192</v>
       </c>
       <c r="L12" t="n">
-        <v>193.3529218090533</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M12" t="n">
-        <v>233.5524586807676</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N12" t="n">
-        <v>258.099425243179</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O12" t="n">
-        <v>215.6120301918562</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P12" t="n">
-        <v>165.138681276346</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.9693456870942</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R12" t="n">
         <v>101.1935444667946</v>
@@ -35570,25 +35570,25 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K13" t="n">
-        <v>268.0241848037242</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L13" t="n">
         <v>405.729518748281</v>
       </c>
       <c r="M13" t="n">
-        <v>443.1778238393217</v>
+        <v>189.9040312822876</v>
       </c>
       <c r="N13" t="n">
-        <v>160.6725528291063</v>
+        <v>95.6890126399381</v>
       </c>
       <c r="O13" t="n">
-        <v>80.07439087672518</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P13" t="n">
         <v>324.2522071620629</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.29850756080278</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>108.9320510392913</v>
+        <v>108.9320510392914</v>
       </c>
       <c r="K14" t="n">
         <v>184.0175733418909</v>
       </c>
       <c r="L14" t="n">
-        <v>243.3862469830493</v>
+        <v>243.3862469830494</v>
       </c>
       <c r="M14" t="n">
         <v>283.7697742322745</v>
       </c>
       <c r="N14" t="n">
-        <v>290.2489329155857</v>
+        <v>290.2489329155858</v>
       </c>
       <c r="O14" t="n">
-        <v>268.6185027147671</v>
+        <v>268.6185027147673</v>
       </c>
       <c r="P14" t="n">
         <v>215.1456315524152</v>
@@ -35670,7 +35670,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R14" t="n">
-        <v>47.57780837970101</v>
+        <v>47.57780837970104</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J15" t="n">
-        <v>57.18097322097397</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K15" t="n">
-        <v>129.7038191826191</v>
+        <v>216.779990698823</v>
       </c>
       <c r="L15" t="n">
-        <v>193.3529218090533</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M15" t="n">
-        <v>233.5524586807676</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N15" t="n">
         <v>245.6283429523684</v>
       </c>
       <c r="O15" t="n">
-        <v>450.4386093924904</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P15" t="n">
-        <v>282.5348824043663</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.9693456870942</v>
+        <v>89.96934568709423</v>
       </c>
       <c r="R15" t="n">
         <v>101.1935444667946</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.66776891454803</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K16" t="n">
-        <v>59.66035289896249</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L16" t="n">
-        <v>298.9280464045934</v>
+        <v>271.3082324926969</v>
       </c>
       <c r="M16" t="n">
         <v>443.1778238393217</v>
       </c>
       <c r="N16" t="n">
-        <v>95.68901263993807</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O16" t="n">
-        <v>398.3317236229277</v>
+        <v>80.0743908767252</v>
       </c>
       <c r="P16" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.8479623141736</v>
+        <v>146.8479623141737</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>108.9320510392913</v>
       </c>
       <c r="K17" t="n">
-        <v>184.0175733418908</v>
+        <v>184.0175733418909</v>
       </c>
       <c r="L17" t="n">
         <v>243.3862469830493</v>
       </c>
       <c r="M17" t="n">
-        <v>283.7697742322744</v>
+        <v>283.7697742322745</v>
       </c>
       <c r="N17" t="n">
         <v>290.2489329155857</v>
@@ -35901,13 +35901,13 @@
         <v>268.6185027147671</v>
       </c>
       <c r="P17" t="n">
-        <v>215.145631552415</v>
+        <v>215.1456315524152</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.8583766375527</v>
+        <v>141.8583766375528</v>
       </c>
       <c r="R17" t="n">
-        <v>47.57780837970098</v>
+        <v>47.57780837970101</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>19.0169078279724</v>
       </c>
       <c r="J18" t="n">
-        <v>57.18097322097396</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K18" t="n">
-        <v>130.0715740031546</v>
+        <v>216.7799906988232</v>
       </c>
       <c r="L18" t="n">
         <v>193.3529218090533</v>
       </c>
       <c r="M18" t="n">
-        <v>450.4386093924904</v>
+        <v>233.5524586807676</v>
       </c>
       <c r="N18" t="n">
-        <v>450.4386093924904</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O18" t="n">
         <v>215.6120301918562</v>
@@ -35983,10 +35983,10 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.96934568709415</v>
+        <v>89.9693456870942</v>
       </c>
       <c r="R18" t="n">
-        <v>12.33524499509632</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>82.32571197650395</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K19" t="n">
-        <v>59.66035289896246</v>
+        <v>59.66035289896249</v>
       </c>
       <c r="L19" t="n">
-        <v>405.7295187482809</v>
+        <v>161.4147316512564</v>
       </c>
       <c r="M19" t="n">
-        <v>94.72696574408374</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N19" t="n">
-        <v>399.2299100829034</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O19" t="n">
         <v>398.3317236229277</v>
       </c>
       <c r="P19" t="n">
-        <v>324.2522071620628</v>
+        <v>60.71939557305466</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.29850756080276</v>
+        <v>146.8479623141736</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>108.9320510392913</v>
+        <v>108.9320510392914</v>
       </c>
       <c r="K20" t="n">
         <v>184.0175733418909</v>
       </c>
       <c r="L20" t="n">
-        <v>243.3862469830493</v>
+        <v>243.3862469830494</v>
       </c>
       <c r="M20" t="n">
         <v>283.7697742322745</v>
       </c>
       <c r="N20" t="n">
-        <v>290.2489329155857</v>
+        <v>290.2489329155858</v>
       </c>
       <c r="O20" t="n">
-        <v>268.6185027147671</v>
+        <v>268.6185027147673</v>
       </c>
       <c r="P20" t="n">
         <v>215.1456315524152</v>
@@ -36144,7 +36144,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R20" t="n">
-        <v>47.57780837970101</v>
+        <v>47.57780837970104</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J21" t="n">
-        <v>57.18097322097397</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K21" t="n">
-        <v>129.7038191826191</v>
+        <v>129.7038191826192</v>
       </c>
       <c r="L21" t="n">
-        <v>450.4386093924904</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M21" t="n">
-        <v>233.5524586807676</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N21" t="n">
         <v>245.6283429523684</v>
       </c>
       <c r="O21" t="n">
-        <v>215.6120301918562</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P21" t="n">
-        <v>165.138681276346</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.9647379040094</v>
+        <v>177.0455172032982</v>
       </c>
       <c r="R21" t="n">
-        <v>12.33524499509634</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K22" t="n">
-        <v>268.0241848037242</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L22" t="n">
         <v>405.729518748281</v>
@@ -36290,16 +36290,16 @@
         <v>443.1778238393217</v>
       </c>
       <c r="N22" t="n">
-        <v>296.6559096647434</v>
+        <v>95.6890126399381</v>
       </c>
       <c r="O22" t="n">
-        <v>80.07439087672518</v>
+        <v>80.0743908767252</v>
       </c>
       <c r="P22" t="n">
-        <v>60.71939557305466</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q22" t="n">
-        <v>146.8479623141736</v>
+        <v>84.28204774997099</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>243.3862469830493</v>
       </c>
       <c r="M23" t="n">
-        <v>283.7697742322745</v>
+        <v>283.769774232275</v>
       </c>
       <c r="N23" t="n">
         <v>290.2489329155857</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.0169078279724</v>
       </c>
       <c r="J24" t="n">
-        <v>57.18097322097397</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K24" t="n">
         <v>129.7038191826191</v>
       </c>
       <c r="L24" t="n">
-        <v>340.7654356975858</v>
+        <v>193.3529218090533</v>
       </c>
       <c r="M24" t="n">
         <v>233.5524586807676</v>
       </c>
       <c r="N24" t="n">
-        <v>450.4386093924905</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O24" t="n">
         <v>215.6120301918562</v>
@@ -36457,7 +36457,7 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.9693456870942</v>
+        <v>177.0455172032986</v>
       </c>
       <c r="R24" t="n">
         <v>101.1935444667946</v>
@@ -36521,13 +36521,13 @@
         <v>268.0241848037242</v>
       </c>
       <c r="L25" t="n">
-        <v>88.57890133916672</v>
+        <v>90.56421449983216</v>
       </c>
       <c r="M25" t="n">
-        <v>109.7749537195975</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N25" t="n">
-        <v>431.0771959203275</v>
+        <v>95.68901263993807</v>
       </c>
       <c r="O25" t="n">
         <v>398.3317236229277</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.0169078279724</v>
       </c>
       <c r="J27" t="n">
-        <v>57.18097322097397</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K27" t="n">
         <v>129.7038191826191</v>
@@ -36691,10 +36691,10 @@
         <v>215.6120301918562</v>
       </c>
       <c r="P27" t="n">
-        <v>450.4386093924905</v>
+        <v>165.138681276346</v>
       </c>
       <c r="Q27" t="n">
-        <v>156.8921978996045</v>
+        <v>177.0455172032986</v>
       </c>
       <c r="R27" t="n">
         <v>101.1935444667946</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.66776891454803</v>
+        <v>19.75979741230151</v>
       </c>
       <c r="K28" t="n">
         <v>268.0241848037242</v>
       </c>
       <c r="L28" t="n">
-        <v>103.6268893146804</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M28" t="n">
-        <v>94.72696574408377</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N28" t="n">
-        <v>431.0771959203275</v>
+        <v>95.68901263993807</v>
       </c>
       <c r="O28" t="n">
-        <v>398.3317236229277</v>
+        <v>80.07439087672518</v>
       </c>
       <c r="P28" t="n">
         <v>324.2522071620629</v>
@@ -36910,7 +36910,7 @@
         <v>19.0169078279724</v>
       </c>
       <c r="J30" t="n">
-        <v>57.18097322097397</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K30" t="n">
         <v>129.7038191826191</v>
@@ -36931,10 +36931,10 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q30" t="n">
-        <v>450.4386093924904</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R30" t="n">
-        <v>73.93015326207995</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454803</v>
       </c>
       <c r="K31" t="n">
         <v>59.66035289896249</v>
       </c>
       <c r="L31" t="n">
-        <v>88.57890133916672</v>
+        <v>354.6221294665829</v>
       </c>
       <c r="M31" t="n">
         <v>443.1778238393217</v>
@@ -37004,10 +37004,10 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O31" t="n">
-        <v>335.1841970993797</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P31" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305466</v>
       </c>
       <c r="Q31" t="n">
         <v>19.29850756080278</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>108.9320510392913</v>
+        <v>108.9320510392919</v>
       </c>
       <c r="K32" t="n">
         <v>184.0175733418909</v>
@@ -37092,7 +37092,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R32" t="n">
-        <v>47.5778083797009</v>
+        <v>47.57780837970101</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>57.18097322097397</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K33" t="n">
         <v>129.7038191826191</v>
@@ -37162,13 +37162,13 @@
         <v>245.6283429523684</v>
       </c>
       <c r="O33" t="n">
-        <v>450.4386093924904</v>
+        <v>215.6120301918562</v>
       </c>
       <c r="P33" t="n">
         <v>165.138681276346</v>
       </c>
       <c r="Q33" t="n">
-        <v>296.2238462868123</v>
+        <v>284.9207245029688</v>
       </c>
       <c r="R33" t="n">
         <v>12.33524499509634</v>
@@ -37232,22 +37232,22 @@
         <v>59.66035289896249</v>
       </c>
       <c r="L34" t="n">
-        <v>405.729518748281</v>
+        <v>354.6221294665829</v>
       </c>
       <c r="M34" t="n">
         <v>443.1778238393217</v>
       </c>
       <c r="N34" t="n">
-        <v>307.144873042453</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O34" t="n">
-        <v>80.07439087672518</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P34" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305466</v>
       </c>
       <c r="Q34" t="n">
-        <v>146.8479623141736</v>
+        <v>19.29850756080278</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.0169078279724</v>
       </c>
       <c r="J36" t="n">
-        <v>293.4517865812045</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K36" t="n">
         <v>129.7038191826191</v>
@@ -37396,7 +37396,7 @@
         <v>233.5524586807676</v>
       </c>
       <c r="N36" t="n">
-        <v>450.4386093924905</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O36" t="n">
         <v>215.6120301918562</v>
@@ -37405,10 +37405,10 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.9693456870942</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R36" t="n">
-        <v>12.33524499509634</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.66776891454803</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K37" t="n">
-        <v>59.66035289896249</v>
+        <v>268.0241848037242</v>
       </c>
       <c r="L37" t="n">
-        <v>405.729518748281</v>
+        <v>356.2262789989267</v>
       </c>
       <c r="M37" t="n">
-        <v>443.1778238393217</v>
+        <v>94.72696574408377</v>
       </c>
       <c r="N37" t="n">
-        <v>116.4369950496214</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O37" t="n">
-        <v>398.3317236229277</v>
+        <v>80.07439087672518</v>
       </c>
       <c r="P37" t="n">
         <v>324.2522071620629</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.29850756080278</v>
+        <v>146.8479623141736</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>283.7697742322745</v>
       </c>
       <c r="N38" t="n">
-        <v>290.2489329155861</v>
+        <v>290.2489329155857</v>
       </c>
       <c r="O38" t="n">
         <v>268.6185027147671</v>
@@ -37621,7 +37621,7 @@
         <v>19.0169078279724</v>
       </c>
       <c r="J39" t="n">
-        <v>57.18097322097397</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K39" t="n">
         <v>129.7038191826191</v>
@@ -37633,19 +37633,19 @@
         <v>233.5524586807676</v>
       </c>
       <c r="N39" t="n">
-        <v>450.4386093924905</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O39" t="n">
         <v>215.6120301918562</v>
       </c>
       <c r="P39" t="n">
-        <v>382.3925868086042</v>
+        <v>165.138681276346</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.9693456870942</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R39" t="n">
-        <v>12.33524499509634</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>16.66776891454803</v>
       </c>
       <c r="K40" t="n">
-        <v>268.0241848037242</v>
+        <v>59.66035289896249</v>
       </c>
       <c r="L40" t="n">
-        <v>405.729518748281</v>
+        <v>91.08931787757484</v>
       </c>
       <c r="M40" t="n">
         <v>443.1778238393217</v>
       </c>
       <c r="N40" t="n">
-        <v>171.6059747338677</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O40" t="n">
         <v>398.3317236229277</v>
       </c>
       <c r="P40" t="n">
-        <v>60.71939557305466</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q40" t="n">
         <v>19.29850756080278</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.0169078279724</v>
       </c>
       <c r="J42" t="n">
-        <v>57.18097322097397</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K42" t="n">
-        <v>450.4386093924904</v>
+        <v>129.7038191826191</v>
       </c>
       <c r="L42" t="n">
         <v>193.3529218090533</v>
@@ -37879,10 +37879,10 @@
         <v>165.138681276346</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.3156352775751</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R42" t="n">
-        <v>12.33524499509634</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K43" t="n">
-        <v>59.66035289896249</v>
+        <v>187.2207043682462</v>
       </c>
       <c r="L43" t="n">
-        <v>161.414731651256</v>
+        <v>88.57890133916672</v>
       </c>
       <c r="M43" t="n">
         <v>443.1778238393217</v>
@@ -37952,10 +37952,10 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O43" t="n">
-        <v>398.3317236229277</v>
+        <v>80.07439087672518</v>
       </c>
       <c r="P43" t="n">
-        <v>60.71939557305466</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q43" t="n">
         <v>146.8479623141736</v>
@@ -38034,7 +38034,7 @@
         <v>268.6185027147671</v>
       </c>
       <c r="P44" t="n">
-        <v>215.1456315524152</v>
+        <v>215.145631552415</v>
       </c>
       <c r="Q44" t="n">
         <v>141.8583766375528</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.0169078279724</v>
       </c>
       <c r="J45" t="n">
-        <v>57.18097322097397</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K45" t="n">
         <v>129.7038191826191</v>
@@ -38110,16 +38110,16 @@
         <v>245.6283429523684</v>
       </c>
       <c r="O45" t="n">
-        <v>450.4386093924904</v>
+        <v>215.6120301918562</v>
       </c>
       <c r="P45" t="n">
         <v>165.138681276346</v>
       </c>
       <c r="Q45" t="n">
-        <v>296.2238462868123</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R45" t="n">
-        <v>12.33524499509634</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454803</v>
       </c>
       <c r="K46" t="n">
         <v>59.66035289896249</v>
       </c>
       <c r="L46" t="n">
-        <v>161.414731651256</v>
+        <v>227.0726747132119</v>
       </c>
       <c r="M46" t="n">
         <v>443.1778238393217</v>
